--- a/E vs ro.xlsx
+++ b/E vs ro.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="690" windowWidth="22005" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="570" yWindow="2490" windowWidth="22005" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>nasz pomiar</t>
   </si>
@@ -47,10 +47,76 @@
     <t>Nasz pomiar</t>
   </si>
   <si>
-    <t>Youngs Module [Gpa]</t>
+    <t xml:space="preserve">Youngs Module [Gpa] </t>
   </si>
   <si>
-    <t>Density</t>
+    <t>Density [zioupos]</t>
+  </si>
+  <si>
+    <t>Youngs Module [Mpa]</t>
+  </si>
+  <si>
+    <t>BV/TV</t>
+  </si>
+  <si>
+    <t>Density [wirtz]</t>
+  </si>
+  <si>
+    <t>density (transverse) [giesen]</t>
+  </si>
+  <si>
+    <t>Density [Lotz 90] beleczkowata</t>
+  </si>
+  <si>
+    <t>Density [lotz 91] zbita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density [Linde 92] </t>
+  </si>
+  <si>
+    <t>Density [Dalstra]</t>
+  </si>
+  <si>
+    <t>density (axial) [giesen]</t>
+  </si>
+  <si>
+    <t>Density [Keller] human spine</t>
+  </si>
+  <si>
+    <t>Density [Keller] human femur</t>
+  </si>
+  <si>
+    <t>Density [Keller] Pooled</t>
+  </si>
+  <si>
+    <t>Density [Keaveny]</t>
+  </si>
+  <si>
+    <t>Density [Li and Aspden]</t>
+  </si>
+  <si>
+    <t>Density [Kopperdahl]</t>
+  </si>
+  <si>
+    <t>E [Goulet]</t>
+  </si>
+  <si>
+    <t>E [Ciarelli]</t>
+  </si>
+  <si>
+    <t>Density [Morgan] vertebrae</t>
+  </si>
+  <si>
+    <t>Density [Morgan] proximal tibia</t>
+  </si>
+  <si>
+    <t>Density [Morgan] femoral</t>
+  </si>
+  <si>
+    <t>Density [Morgan] pooled</t>
+  </si>
+  <si>
+    <t>Density [Kaneko] femur</t>
   </si>
 </sst>
 </file>
@@ -307,13 +373,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,11 +1282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-117275280"/>
-        <c:axId val="-117279632"/>
+        <c:axId val="1388742368"/>
+        <c:axId val="1388745088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-117275280"/>
+        <c:axId val="1388742368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,12 +1296,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-117279632"/>
+        <c:crossAx val="1388745088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-117279632"/>
+        <c:axId val="1388745088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -1247,7 +1313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-117275280"/>
+        <c:crossAx val="1388742368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2528,6 +2594,521 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$W$2:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.60950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57725000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52475000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53874999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67974999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54774999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52224999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61075000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56125000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62675000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54325000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64775000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63775000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69974999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61475000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$U$2:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13509399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11593829999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14438499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10575230000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.003100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4967200000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14163999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15177750000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15415600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14673750000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11959500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2852999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2002299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12052700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12848330000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13077000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14972749999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.58136E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0492000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3965999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12721670000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12835199999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6975600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4342600000000013E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$AB$2:$AB$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.31744391915440517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33320352120694735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30317492121376177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31312230102420074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3423354430457789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30163338208509727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25510289187066032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29988413173279133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2622648953595636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3396746861111587</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34935505782811305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35157029426539133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34459195418676136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34202199296748248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31709993447623375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27314764421135218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24278308149499578</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3004084977106995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31810215338133829</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32647663944397426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35277849007681211</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32882627927359448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34742918262511191</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24874253988753697</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2699563760381421</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28748685269002139</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33659650848992528</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32516448457042801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35445841754508933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33171750908507203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33276294377164528</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32634097476213519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30737465946913101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26509867595476544</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28795467048132606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$U$2:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13509399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11593829999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14438499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10575230000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.003100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4967200000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14163999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15177750000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15415600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14673750000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11959500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2852999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2002299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12052700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12848330000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13077000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14972749999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.58136E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0492000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3965999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12721670000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12835199999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6975600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4342600000000013E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2536,11 +3117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-33474624"/>
-        <c:axId val="-33482240"/>
+        <c:axId val="1388732032"/>
+        <c:axId val="1388734208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-33474624"/>
+        <c:axId val="1388732032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,12 +3239,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-33482240"/>
+        <c:crossAx val="1388734208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-33482240"/>
+        <c:axId val="1388734208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +3357,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-33474624"/>
+        <c:crossAx val="1388732032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3420,16 +4001,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4687,10 +5268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:AR74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4698,9 +5279,11 @@
     <col min="1" max="3" width="9" style="18"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
     <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="24" max="26" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="47.25">
+    <row r="1" spans="1:44" ht="57">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -4758,14 +5341,83 @@
       <c r="S1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75">
+      <c r="V1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="15.75">
       <c r="B2" s="18">
         <v>0.27689900000000001</v>
       </c>
@@ -4808,14 +5460,105 @@
         <v>9180</v>
       </c>
       <c r="S2" s="19"/>
-      <c r="T2" s="20">
+      <c r="T2" s="22">
         <v>1.1495169999999999</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="21">
         <v>0.1199144</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75">
+      <c r="V2" s="22">
+        <f>U2*10^3</f>
+        <v>119.9144</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="X2" s="22">
+        <f>(U2/1.31)^(1/1.4)</f>
+        <v>0.18125322602709948</v>
+      </c>
+      <c r="Y2" s="22">
+        <f>(U2+13.43)/14.261</f>
+        <v>0.95013774630110104</v>
+      </c>
+      <c r="Z2" s="21">
+        <f>(U2/4.778)^(1/1.99)</f>
+        <v>0.15696092681747809</v>
+      </c>
+      <c r="AA2" s="22">
+        <f>Z2*2.2</f>
+        <v>0.34531403899845181</v>
+      </c>
+      <c r="AB2" s="22">
+        <f>(U2/2.0173)^(1/2.46)</f>
+        <v>0.31744391915440517</v>
+      </c>
+      <c r="AC2" s="22">
+        <f>(V2/1157)^(1/1.78)</f>
+        <v>0.27985395528312212</v>
+      </c>
+      <c r="AD2" s="22">
+        <f>(V2/4217)^(1/2.25)</f>
+        <v>0.20550864967813012</v>
+      </c>
+      <c r="AE2" s="22">
+        <f>(V2/2786)^(1/3.22)</f>
+        <v>0.3764803437960359</v>
+      </c>
+      <c r="AF2">
+        <f>(U2/1.89)^(1/1.92)</f>
+        <v>0.23782360935208277</v>
+      </c>
+      <c r="AG2">
+        <f>(U2/10.5)^(1/2.29)</f>
+        <v>0.14184898031619639</v>
+      </c>
+      <c r="AH2">
+        <f>(U2/10.5)^(1/2.57)</f>
+        <v>0.17548267931041106</v>
+      </c>
+      <c r="AI2">
+        <f>6.31*(W2)^2.2</f>
+        <v>2.1231052348314212</v>
+      </c>
+      <c r="AJ2">
+        <f>(U2+0.058)/1.54</f>
+        <v>0.11552883116883117</v>
+      </c>
+      <c r="AK2">
+        <f>(U2+0.0094)/0.573</f>
+        <v>0.22567958115183248</v>
+      </c>
+      <c r="AL2">
+        <f>(U2+0.08)/2.1</f>
+        <v>9.5197333333333328E-2</v>
+      </c>
+      <c r="AM2">
+        <f>7.541*(W2)-0.637</f>
+        <v>3.9592395000000002</v>
+      </c>
+      <c r="AN2">
+        <f>(U2/4.73)^(1/1.56)</f>
+        <v>9.4826476607835733E-2</v>
+      </c>
+      <c r="AO2">
+        <f>(U2/15.52)^(1/1.93)</f>
+        <v>8.0480177070601538E-2</v>
+      </c>
+      <c r="AP2">
+        <f>(U2/6.85)^(1/1.49)</f>
+        <v>6.6210472848481153E-2</v>
+      </c>
+      <c r="AQ2">
+        <f>(U2/8.92)^(1/1.83)</f>
+        <v>9.4913053982627005E-2</v>
+      </c>
+      <c r="AR2">
+        <f>(U2/10.88)^(1/1.61)</f>
+        <v>6.0813712641416773E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="15.75">
       <c r="B3" s="18">
         <v>0.31645600000000002</v>
       </c>
@@ -4858,14 +5601,105 @@
         <v>12110</v>
       </c>
       <c r="S3" s="19"/>
-      <c r="T3" s="20">
+      <c r="T3" s="22">
         <v>1.1349004999999999</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="21">
         <v>0.13509399999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75">
+      <c r="V3" s="22">
+        <f t="shared" ref="V3:V66" si="0">U3*10^3</f>
+        <v>135.09399999999999</v>
+      </c>
+      <c r="W3" s="21">
+        <v>0.60175000000000001</v>
+      </c>
+      <c r="X3" s="22">
+        <f t="shared" ref="X3:X66" si="1">(U3/1.31)^(1/1.4)</f>
+        <v>0.19736064081531171</v>
+      </c>
+      <c r="Y3" s="22">
+        <f t="shared" ref="Y3:Y66" si="2">(U3+13.43)/14.261</f>
+        <v>0.95120215973634392</v>
+      </c>
+      <c r="Z3" s="21">
+        <f t="shared" ref="Z3:Z36" si="3">(U3/4.778)^(1/1.99)</f>
+        <v>0.16664948566878712</v>
+      </c>
+      <c r="AA3" s="22">
+        <f t="shared" ref="AA3:AA66" si="4">Z3*2.2</f>
+        <v>0.36662886847133169</v>
+      </c>
+      <c r="AB3" s="22">
+        <f t="shared" ref="AB3:AB66" si="5">(U3/2.0173)^(1/2.46)</f>
+        <v>0.33320352120694735</v>
+      </c>
+      <c r="AC3" s="22">
+        <f t="shared" ref="AC3:AC66" si="6">(V3/1157)^(1/1.78)</f>
+        <v>0.29923525115939753</v>
+      </c>
+      <c r="AD3" s="22">
+        <f t="shared" ref="AD3:AD66" si="7">(V3/4217)^(1/2.25)</f>
+        <v>0.21668889197072294</v>
+      </c>
+      <c r="AE3" s="22">
+        <f t="shared" ref="AE3:AE66" si="8">(V3/2786)^(1/3.22)</f>
+        <v>0.39067741646722881</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF66" si="9">(U3/1.89)^(1/1.92)</f>
+        <v>0.25305548709520476</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG66" si="10">(U3/10.5)^(1/2.29)</f>
+        <v>0.14942762724540498</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH66" si="11">(U3/10.5)^(1/2.57)</f>
+        <v>0.18381297829532903</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI66" si="12">6.31*(W3)^2.2</f>
+        <v>2.0641667445645018</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ66" si="13">(U3+0.058)/1.54</f>
+        <v>0.12538571428571427</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK66" si="14">(U3+0.0094)/0.573</f>
+        <v>0.25217102966841187</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL66" si="15">(U3+0.08)/2.1</f>
+        <v>0.10242571428571429</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM66" si="16">7.541*(W3)-0.637</f>
+        <v>3.90079675</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN66" si="17">(U3/4.73)^(1/1.56)</f>
+        <v>0.10235572252693162</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO66" si="18">(U3/15.52)^(1/1.93)</f>
+        <v>8.560714681862569E-2</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP66" si="19">(U3/6.85)^(1/1.49)</f>
+        <v>7.1724596496385989E-2</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ66" si="20">(U3/8.92)^(1/1.83)</f>
+        <v>0.10130075475978445</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR66" si="21">(U3/10.88)^(1/1.61)</f>
+        <v>6.5486762263548826E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="15.75">
       <c r="B4" s="18">
         <v>0.34810160000000001</v>
       </c>
@@ -4908,14 +5742,105 @@
         <v>14460</v>
       </c>
       <c r="S4" s="19"/>
-      <c r="T4" s="20">
+      <c r="T4" s="22">
         <v>1.0886935</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="21">
         <v>0.1070868</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75">
+      <c r="V4" s="22">
+        <f t="shared" si="0"/>
+        <v>107.0868</v>
+      </c>
+      <c r="W4" s="21">
+        <v>0.57725000000000004</v>
+      </c>
+      <c r="X4" s="22">
+        <f t="shared" si="1"/>
+        <v>0.16718181369294199</v>
+      </c>
+      <c r="Y4" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94923825818666296</v>
+      </c>
+      <c r="Z4" s="21">
+        <f t="shared" si="3"/>
+        <v>0.14828608519811803</v>
+      </c>
+      <c r="AA4" s="22">
+        <f t="shared" si="4"/>
+        <v>0.32622938743585972</v>
+      </c>
+      <c r="AB4" s="22">
+        <f t="shared" si="5"/>
+        <v>0.30317492121376177</v>
+      </c>
+      <c r="AC4" s="22">
+        <f t="shared" si="6"/>
+        <v>0.26261969541789176</v>
+      </c>
+      <c r="AD4" s="22">
+        <f t="shared" si="7"/>
+        <v>0.19543041358911564</v>
+      </c>
+      <c r="AE4" s="22">
+        <f t="shared" si="8"/>
+        <v>0.36348196410645367</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="9"/>
+        <v>0.22421445759736455</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="10"/>
+        <v>0.13501117366709298</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="11"/>
+        <v>0.16792502626253217</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="12"/>
+        <v>1.8837793451918479</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="13"/>
+        <v>0.10719922077922078</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="14"/>
+        <v>0.2032928446771379</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="15"/>
+        <v>8.908895238095238E-2</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="16"/>
+        <v>3.7160422500000005</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="17"/>
+        <v>8.819268490402353E-2</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="18"/>
+        <v>7.5897971348371354E-2</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="19"/>
+        <v>6.1369122355461637E-2</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="20"/>
+        <v>8.9222831935044697E-2</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="21"/>
+        <v>5.6686890786237322E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="15.75">
       <c r="B5" s="18">
         <v>0.49050680000000002</v>
       </c>
@@ -4958,14 +5883,105 @@
         <v>17190</v>
       </c>
       <c r="S5" s="19"/>
-      <c r="T5" s="20">
+      <c r="T5" s="22">
         <v>0.98967850000000002</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <v>0.11593829999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75">
+      <c r="V5" s="22">
+        <f t="shared" si="0"/>
+        <v>115.9383</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0.52475000000000005</v>
+      </c>
+      <c r="X5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.17693976726717295</v>
+      </c>
+      <c r="Y5" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94985893696094248</v>
+      </c>
+      <c r="Z5" s="21">
+        <f t="shared" si="3"/>
+        <v>0.15432367400955124</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" si="4"/>
+        <v>0.33951208282101275</v>
+      </c>
+      <c r="AB5" s="22">
+        <f t="shared" si="5"/>
+        <v>0.31312230102420074</v>
+      </c>
+      <c r="AC5" s="22">
+        <f t="shared" si="6"/>
+        <v>0.27460235174428488</v>
+      </c>
+      <c r="AD5" s="22">
+        <f t="shared" si="7"/>
+        <v>0.20245172366077599</v>
+      </c>
+      <c r="AE5" s="22">
+        <f t="shared" si="8"/>
+        <v>0.37255839398055463</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="9"/>
+        <v>0.23368329553522335</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="10"/>
+        <v>0.13977557226937209</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="11"/>
+        <v>0.17319527607392446</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="12"/>
+        <v>1.5273013766168826</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="13"/>
+        <v>0.11294694805194805</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="14"/>
+        <v>0.21874048865619544</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="15"/>
+        <v>9.3303952380952376E-2</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="16"/>
+        <v>3.3201397500000005</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="17"/>
+        <v>9.2798759623138008E-2</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="18"/>
+        <v>7.9086279570984339E-2</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="19"/>
+        <v>6.4728899875821769E-2</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="20"/>
+        <v>9.3180178382308645E-2</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="21"/>
+        <v>5.9553269627347111E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="15.75">
       <c r="B6" s="18">
         <v>0.51424100000000006</v>
       </c>
@@ -5008,14 +6024,105 @@
         <v>19950</v>
       </c>
       <c r="S6" s="19"/>
-      <c r="T6" s="20">
+      <c r="T6" s="22">
         <v>1.0160824999999998</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="21">
         <v>0.14438499999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75">
+      <c r="V6" s="22">
+        <f t="shared" si="0"/>
+        <v>144.38499999999999</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0.53874999999999995</v>
+      </c>
+      <c r="X6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.20696333567475883</v>
+      </c>
+      <c r="Y6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95185365682630951</v>
+      </c>
+      <c r="Z6" s="21">
+        <f t="shared" si="3"/>
+        <v>0.1723136031113715</v>
+      </c>
+      <c r="AA6" s="22">
+        <f t="shared" si="4"/>
+        <v>0.37908992684501736</v>
+      </c>
+      <c r="AB6" s="22">
+        <f t="shared" si="5"/>
+        <v>0.3423354430457789</v>
+      </c>
+      <c r="AC6" s="22">
+        <f t="shared" si="6"/>
+        <v>0.31062818059755715</v>
+      </c>
+      <c r="AD6" s="22">
+        <f t="shared" si="7"/>
+        <v>0.22319007508893676</v>
+      </c>
+      <c r="AE6" s="22">
+        <f t="shared" si="8"/>
+        <v>0.39883119484660406</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="9"/>
+        <v>0.26197542818833069</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="10"/>
+        <v>0.15383136059745067</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="11"/>
+        <v>0.18863221609888622</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="12"/>
+        <v>1.6183832772247879</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="13"/>
+        <v>0.13141883116883116</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="14"/>
+        <v>0.2683856893542757</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="15"/>
+        <v>0.10685</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="16"/>
+        <v>3.4257137499999994</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="17"/>
+        <v>0.10681415408013609</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="18"/>
+        <v>8.8608803166619107E-2</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="19"/>
+        <v>7.4998866864500704E-2</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="20"/>
+        <v>0.1050503223815733</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="21"/>
+        <v>6.824881953333467E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="15.75">
       <c r="B7" s="18">
         <v>0.5379752000000001</v>
       </c>
@@ -5051,14 +6158,105 @@
         <v>1060</v>
       </c>
       <c r="S7" s="19"/>
-      <c r="T7" s="20">
+      <c r="T7" s="22">
         <v>1.0156109999999998</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <v>0.10575230000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75">
+      <c r="V7" s="22">
+        <f t="shared" si="0"/>
+        <v>105.75230000000001</v>
+      </c>
+      <c r="W7" s="21">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="X7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.16569101069610084</v>
+      </c>
+      <c r="Y7" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94914468129864671</v>
+      </c>
+      <c r="Z7" s="21">
+        <f t="shared" si="3"/>
+        <v>0.14735458592264336</v>
+      </c>
+      <c r="AA7" s="22">
+        <f t="shared" si="4"/>
+        <v>0.32418008902981543</v>
+      </c>
+      <c r="AB7" s="22">
+        <f t="shared" si="5"/>
+        <v>0.30163338208509727</v>
+      </c>
+      <c r="AC7" s="22">
+        <f t="shared" si="6"/>
+        <v>0.26077603372776792</v>
+      </c>
+      <c r="AD7" s="22">
+        <f t="shared" si="7"/>
+        <v>0.19434423109878513</v>
+      </c>
+      <c r="AE7" s="22">
+        <f t="shared" si="8"/>
+        <v>0.36206915186464544</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="9"/>
+        <v>0.22275481090634264</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="10"/>
+        <v>0.13427386639893038</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="11"/>
+        <v>0.16710764246022347</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="12"/>
+        <v>1.616731559390046</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="13"/>
+        <v>0.10633266233766235</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="14"/>
+        <v>0.20096387434554977</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="15"/>
+        <v>8.8453476190476193E-2</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="16"/>
+        <v>3.4238285000000004</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="17"/>
+        <v>8.7486584540108991E-2</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="18"/>
+        <v>7.5406423768407352E-2</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="19"/>
+        <v>6.0854794293680049E-2</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="20"/>
+        <v>8.8613518710681377E-2</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="21"/>
+        <v>5.624707646315296E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="15.75">
       <c r="B8" s="18">
         <v>0.6170892</v>
       </c>
@@ -5082,14 +6280,105 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="20">
+      <c r="T8" s="22">
         <v>1.2820084999999999</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="21">
         <v>7.003100000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75">
+      <c r="V8" s="22">
+        <f t="shared" si="0"/>
+        <v>70.031000000000006</v>
+      </c>
+      <c r="W8" s="21">
+        <v>0.67974999999999997</v>
+      </c>
+      <c r="X8" s="22">
+        <f t="shared" si="1"/>
+        <v>0.12343609267998991</v>
+      </c>
+      <c r="Y8" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94663985695252795</v>
+      </c>
+      <c r="Z8" s="21">
+        <f t="shared" si="3"/>
+        <v>0.11978823392675131</v>
+      </c>
+      <c r="AA8" s="22">
+        <f t="shared" si="4"/>
+        <v>0.2635341146388529</v>
+      </c>
+      <c r="AB8" s="22">
+        <f t="shared" si="5"/>
+        <v>0.25510289187066032</v>
+      </c>
+      <c r="AC8" s="22">
+        <f t="shared" si="6"/>
+        <v>0.20687411932345848</v>
+      </c>
+      <c r="AD8" s="22">
+        <f t="shared" si="7"/>
+        <v>0.16181408546258833</v>
+      </c>
+      <c r="AE8" s="22">
+        <f t="shared" si="8"/>
+        <v>0.31856761182744042</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="9"/>
+        <v>0.17972073639336802</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="10"/>
+        <v>0.1121568431350853</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="11"/>
+        <v>0.14234647069027953</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="12"/>
+        <v>2.6989673759921051</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="13"/>
+        <v>8.3137012987012995E-2</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="14"/>
+        <v>0.13862303664921469</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="15"/>
+        <v>7.1443333333333345E-2</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="16"/>
+        <v>4.4889947499999998</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="17"/>
+        <v>6.7173533958812953E-2</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="18"/>
+        <v>6.0906338620618818E-2</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="19"/>
+        <v>4.6148852885488381E-2</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="20"/>
+        <v>7.0743419948462574E-2</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="21"/>
+        <v>4.3543180160444422E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="15.75">
       <c r="B9" s="18">
         <v>0.63291200000000003</v>
       </c>
@@ -5113,14 +6402,105 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="S9" s="19"/>
-      <c r="T9" s="20">
+      <c r="T9" s="22">
         <v>1.145745</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="21">
         <v>0.10425</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75">
+      <c r="V9" s="22">
+        <f t="shared" si="0"/>
+        <v>104.25</v>
+      </c>
+      <c r="W9" s="21">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="X9" s="22">
+        <f t="shared" si="1"/>
+        <v>0.16400630663639501</v>
+      </c>
+      <c r="Y9" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94903933805483487</v>
+      </c>
+      <c r="Z9" s="21">
+        <f t="shared" si="3"/>
+        <v>0.14629893510129915</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" si="4"/>
+        <v>0.32185765722285814</v>
+      </c>
+      <c r="AB9" s="22">
+        <f t="shared" si="5"/>
+        <v>0.29988413173279133</v>
+      </c>
+      <c r="AC9" s="22">
+        <f t="shared" si="6"/>
+        <v>0.25868830808687748</v>
+      </c>
+      <c r="AD9" s="22">
+        <f t="shared" si="7"/>
+        <v>0.19311232089521549</v>
+      </c>
+      <c r="AE9" s="22">
+        <f t="shared" si="8"/>
+        <v>0.36046390747289137</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="9"/>
+        <v>0.22110102714698676</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="10"/>
+        <v>0.13343755113534864</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="11"/>
+        <v>0.16617990548102785</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="12"/>
+        <v>2.1078086393567768</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="13"/>
+        <v>0.10535714285714286</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="14"/>
+        <v>0.19834205933682375</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="15"/>
+        <v>8.7738095238095226E-2</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="16"/>
+        <v>3.9441575000000006</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="17"/>
+        <v>8.6687860387803573E-2</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="18"/>
+        <v>7.484947882113048E-2</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="19"/>
+        <v>6.027323357379899E-2</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="20"/>
+        <v>8.7923402433757306E-2</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="21"/>
+        <v>5.5749435881501073E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="15.75">
       <c r="B10" s="18">
         <v>0.68038040000000011</v>
       </c>
@@ -5144,14 +6524,105 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="20">
+      <c r="T10" s="22">
         <v>1.1999674999999999</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="21">
         <v>7.4967200000000012E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75">
+      <c r="V10" s="22">
+        <f t="shared" si="0"/>
+        <v>74.967200000000005</v>
+      </c>
+      <c r="W10" s="21">
+        <v>0.63624999999999998</v>
+      </c>
+      <c r="X10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.12958998058912319</v>
+      </c>
+      <c r="Y10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94698598976228876</v>
+      </c>
+      <c r="Z10" s="21">
+        <f t="shared" si="3"/>
+        <v>0.12395925781966975</v>
+      </c>
+      <c r="AA10" s="22">
+        <f t="shared" si="4"/>
+        <v>0.27271036720327346</v>
+      </c>
+      <c r="AB10" s="22">
+        <f t="shared" si="5"/>
+        <v>0.2622648953595636</v>
+      </c>
+      <c r="AC10" s="22">
+        <f t="shared" si="6"/>
+        <v>0.21494368026126429</v>
+      </c>
+      <c r="AD10" s="22">
+        <f t="shared" si="7"/>
+        <v>0.16678746868871869</v>
+      </c>
+      <c r="AE10" s="22">
+        <f t="shared" si="8"/>
+        <v>0.32537805153204197</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
+        <v>0.18621083207707673</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="10"/>
+        <v>0.11554289042110553</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="11"/>
+        <v>0.14616951500517592</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="12"/>
+        <v>2.3335145276860665</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="13"/>
+        <v>8.6342337662337662E-2</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="14"/>
+        <v>0.14723769633507858</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="15"/>
+        <v>7.3793904761904769E-2</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="16"/>
+        <v>4.1609612499999997</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="17"/>
+        <v>7.0171434101384211E-2</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="18"/>
+        <v>6.3094196832921376E-2</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="19"/>
+        <v>4.8307426893382126E-2</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="20"/>
+        <v>7.3426108462786716E-2</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="21"/>
+        <v>4.5424840710936477E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="15.75">
       <c r="B11" s="18">
         <v>0.69620320000000002</v>
       </c>
@@ -5175,14 +6646,105 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="S11" s="19"/>
-      <c r="T11" s="20">
+      <c r="T11" s="22">
         <v>1.0750199999999999</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="21">
         <v>0.14163999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75">
+      <c r="V11" s="22">
+        <f t="shared" si="0"/>
+        <v>141.63999999999999</v>
+      </c>
+      <c r="W11" s="21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.20414512623236009</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95166117383072724</v>
+      </c>
+      <c r="Z11" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17065952755945499</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" si="4"/>
+        <v>0.37545096063080102</v>
+      </c>
+      <c r="AB11" s="22">
+        <f t="shared" si="5"/>
+        <v>0.3396746861111587</v>
+      </c>
+      <c r="AC11" s="22">
+        <f t="shared" si="6"/>
+        <v>0.30729650259636898</v>
+      </c>
+      <c r="AD11" s="22">
+        <f t="shared" si="7"/>
+        <v>0.22129414254473775</v>
+      </c>
+      <c r="AE11" s="22">
+        <f t="shared" si="8"/>
+        <v>0.39646079756536617</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="9"/>
+        <v>0.25936944296968739</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="10"/>
+        <v>0.15254733928505054</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="11"/>
+        <v>0.18722861526909115</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="12"/>
+        <v>1.8321205319106104</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="13"/>
+        <v>0.12963636363636363</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="14"/>
+        <v>0.26359511343804537</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="15"/>
+        <v>0.10554285714285715</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="16"/>
+        <v>3.6613700000000002</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="17"/>
+        <v>0.10550793270936554</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="18"/>
+        <v>8.7731916616483108E-2</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="19"/>
+        <v>7.4038901085104206E-2</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="20"/>
+        <v>0.10395421693546669</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="21"/>
+        <v>6.7439975744572264E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="15.75">
       <c r="B12" s="18">
         <v>0.70411460000000003</v>
       </c>
@@ -5206,14 +6768,105 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="20">
+      <c r="T12" s="22">
         <v>1.0330564999999998</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="21">
         <v>0.15177750000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75">
+      <c r="V12" s="22">
+        <f t="shared" si="0"/>
+        <v>151.7775</v>
+      </c>
+      <c r="W12" s="21">
+        <v>0.54774999999999996</v>
+      </c>
+      <c r="X12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21447808738508831</v>
+      </c>
+      <c r="Y12" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95237202860949444</v>
+      </c>
+      <c r="Z12" s="21">
+        <f t="shared" si="3"/>
+        <v>0.1766919274861769</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="4"/>
+        <v>0.3887222404695892</v>
+      </c>
+      <c r="AB12" s="22">
+        <f t="shared" si="5"/>
+        <v>0.34935505782811305</v>
+      </c>
+      <c r="AC12" s="22">
+        <f t="shared" si="6"/>
+        <v>0.31946524363475942</v>
+      </c>
+      <c r="AD12" s="22">
+        <f t="shared" si="7"/>
+        <v>0.22819850629715227</v>
+      </c>
+      <c r="AE12" s="22">
+        <f t="shared" si="8"/>
+        <v>0.40506404040899252</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="9"/>
+        <v>0.26887783049213815</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="10"/>
+        <v>0.15722241118958558</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="11"/>
+        <v>0.19233296815640377</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="12"/>
+        <v>1.678458504637159</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="13"/>
+        <v>0.13621915584415584</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="14"/>
+        <v>0.28128708551483422</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="15"/>
+        <v>0.1103702380952381</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="16"/>
+        <v>3.4935827500000003</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="17"/>
+        <v>0.11028835275068047</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="18"/>
+        <v>9.0931171564560292E-2</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="19"/>
+        <v>7.755478646715451E-2</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="20"/>
+        <v>0.10795612561997339</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="21"/>
+        <v>7.0398642635017203E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="15.75">
       <c r="B13" s="18">
         <v>0.7436716000000001</v>
       </c>
@@ -5237,14 +6890,105 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="S13" s="19"/>
-      <c r="T13" s="20">
+      <c r="T13" s="22">
         <v>1.016554</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="21">
         <v>0.15415600000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75">
+      <c r="V13" s="22">
+        <f t="shared" si="0"/>
+        <v>154.15600000000001</v>
+      </c>
+      <c r="W13" s="21">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="X13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21687351907407543</v>
+      </c>
+      <c r="Y13" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9525388121450109</v>
+      </c>
+      <c r="Z13" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17807796934574013</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" si="4"/>
+        <v>0.3917715325606283</v>
+      </c>
+      <c r="AB13" s="22">
+        <f t="shared" si="5"/>
+        <v>0.35157029426539133</v>
+      </c>
+      <c r="AC13" s="22">
+        <f t="shared" si="6"/>
+        <v>0.32226820287009533</v>
+      </c>
+      <c r="AD13" s="22">
+        <f t="shared" si="7"/>
+        <v>0.22978101710636681</v>
+      </c>
+      <c r="AE13" s="22">
+        <f t="shared" si="8"/>
+        <v>0.40702483326333344</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="9"/>
+        <v>0.27106422447546163</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="10"/>
+        <v>0.15829360766080675</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="11"/>
+        <v>0.19350018073755448</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="12"/>
+        <v>1.6200359150657415</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="13"/>
+        <v>0.13776363636363637</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="14"/>
+        <v>0.28543804537521816</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="15"/>
+        <v>0.11150285714285715</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="16"/>
+        <v>3.4275990000000003</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="17"/>
+        <v>0.11139315907451953</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="18"/>
+        <v>9.1666736486903128E-2</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="19"/>
+        <v>7.8368375892838529E-2</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="20"/>
+        <v>0.10887733312098409</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="21"/>
+        <v>7.1081849435667324E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" ht="15.75">
       <c r="B14" s="18">
         <v>0.75949440000000012</v>
       </c>
@@ -5264,14 +7008,105 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="S14" s="19"/>
-      <c r="T14" s="20">
+      <c r="T14" s="22">
         <v>0.96280299999999974</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="21">
         <v>0.14673750000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75">
+      <c r="V14" s="22">
+        <f t="shared" si="0"/>
+        <v>146.73750000000001</v>
+      </c>
+      <c r="W14" s="21">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="X14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.20936641385287841</v>
+      </c>
+      <c r="Y14" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95201861720776948</v>
+      </c>
+      <c r="Z14" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17371875919289889</v>
+      </c>
+      <c r="AA14" s="22">
+        <f t="shared" si="4"/>
+        <v>0.38218127022437759</v>
+      </c>
+      <c r="AB14" s="22">
+        <f t="shared" si="5"/>
+        <v>0.34459195418676136</v>
+      </c>
+      <c r="AC14" s="22">
+        <f t="shared" si="6"/>
+        <v>0.31346144621568001</v>
+      </c>
+      <c r="AD14" s="22">
+        <f t="shared" si="7"/>
+        <v>0.22479903931914619</v>
+      </c>
+      <c r="AE14" s="22">
+        <f t="shared" si="8"/>
+        <v>0.40083805414750273</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="9"/>
+        <v>0.26418995935060713</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="10"/>
+        <v>0.15492088296449089</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="11"/>
+        <v>0.18982220343582146</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="12"/>
+        <v>1.4375402100729362</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="13"/>
+        <v>0.13294642857142858</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="14"/>
+        <v>0.27249127399650963</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="15"/>
+        <v>0.10797023809523811</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="16"/>
+        <v>3.2126804999999998</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="17"/>
+        <v>0.10792652377906393</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="18"/>
+        <v>8.9353934014535258E-2</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="19"/>
+        <v>7.5816802732944305E-2</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="20"/>
+        <v>0.10598219980507718</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="21"/>
+        <v>6.8937383395693871E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="15.75">
       <c r="B15" s="18">
         <v>0.79114000000000007</v>
       </c>
@@ -5291,14 +7126,105 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="S15" s="19"/>
-      <c r="T15" s="20">
+      <c r="T15" s="22">
         <v>0.98496349999999999</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="21">
         <v>0.14405999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75">
+      <c r="V15" s="22">
+        <f t="shared" si="0"/>
+        <v>144.06</v>
+      </c>
+      <c r="W15" s="21">
+        <v>0.52224999999999999</v>
+      </c>
+      <c r="X15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.2066304719811384</v>
+      </c>
+      <c r="Y15" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95183086740060308</v>
+      </c>
+      <c r="Z15" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17211858670935207</v>
+      </c>
+      <c r="AA15" s="22">
+        <f t="shared" si="4"/>
+        <v>0.37866089076057458</v>
+      </c>
+      <c r="AB15" s="22">
+        <f t="shared" si="5"/>
+        <v>0.34202199296748248</v>
+      </c>
+      <c r="AC15" s="22">
+        <f t="shared" si="6"/>
+        <v>0.31023517702480491</v>
+      </c>
+      <c r="AD15" s="22">
+        <f t="shared" si="7"/>
+        <v>0.22296665335287127</v>
+      </c>
+      <c r="AE15" s="22">
+        <f t="shared" si="8"/>
+        <v>0.39855217710758634</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="9"/>
+        <v>0.26166813352420104</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="10"/>
+        <v>0.15368005804344409</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="11"/>
+        <v>0.18846688944318707</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="12"/>
+        <v>1.5113391978256681</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="13"/>
+        <v>0.13120779220779219</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="14"/>
+        <v>0.26781849912739963</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="15"/>
+        <v>0.10669523809523808</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="16"/>
+        <v>3.3012872500000001</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="17"/>
+        <v>0.10665996944590321</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="18"/>
+        <v>8.8505404111304531E-2</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="19"/>
+        <v>7.4885524938464482E-2</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="20"/>
+        <v>0.10492104294305929</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="21"/>
+        <v>6.815336074997301E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" ht="15.75">
       <c r="B16" s="18">
         <v>0.82278560000000012</v>
       </c>
@@ -5318,14 +7244,105 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="20">
+      <c r="T16" s="22">
         <v>1.1518744999999999</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="21">
         <v>0.11959500000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" ht="15.75">
+      <c r="V16" s="22">
+        <f t="shared" si="0"/>
+        <v>119.59500000000001</v>
+      </c>
+      <c r="W16" s="21">
+        <v>0.61075000000000002</v>
+      </c>
+      <c r="X16" s="22">
+        <f t="shared" si="1"/>
+        <v>0.18090825176604464</v>
+      </c>
+      <c r="Y16" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95011534955472976</v>
+      </c>
+      <c r="Z16" s="21">
+        <f t="shared" si="3"/>
+        <v>0.15675069904987171</v>
+      </c>
+      <c r="AA16" s="22">
+        <f t="shared" si="4"/>
+        <v>0.34485153790971779</v>
+      </c>
+      <c r="AB16" s="22">
+        <f t="shared" si="5"/>
+        <v>0.31709993447623375</v>
+      </c>
+      <c r="AC16" s="22">
+        <f t="shared" si="6"/>
+        <v>0.27943494110322192</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" si="7"/>
+        <v>0.20526518676644917</v>
+      </c>
+      <c r="AE16" s="22">
+        <f t="shared" si="8"/>
+        <v>0.37616863490749425</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="9"/>
+        <v>0.23749347194987575</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="10"/>
+        <v>0.14168386762534035</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="11"/>
+        <v>0.17530065960726915</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="12"/>
+        <v>2.1326962517281904</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="13"/>
+        <v>0.11532142857142857</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="14"/>
+        <v>0.22512216404886565</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="15"/>
+        <v>9.5045238095238099E-2</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="16"/>
+        <v>3.96866575</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="17"/>
+        <v>9.4664491005261156E-2</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="18"/>
+        <v>8.0369036104107283E-2</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="19"/>
+        <v>6.6092061211619965E-2</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="20"/>
+        <v>9.4774824392934276E-2</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="21"/>
+        <v>6.0713052260840235E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:44" ht="15.75">
       <c r="B17" s="18">
         <v>0.85443120000000006</v>
       </c>
@@ -5345,14 +7362,105 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="S17" s="19"/>
-      <c r="T17" s="20">
+      <c r="T17" s="22">
         <v>1.1165119999999999</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="21">
         <v>8.2852999999999996E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" ht="15.75">
+      <c r="V17" s="22">
+        <f t="shared" si="0"/>
+        <v>82.852999999999994</v>
+      </c>
+      <c r="W17" s="21">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="X17" s="22">
+        <f t="shared" si="1"/>
+        <v>0.13918672498530776</v>
+      </c>
+      <c r="Y17" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94753895238763064</v>
+      </c>
+      <c r="Z17" s="21">
+        <f t="shared" si="3"/>
+        <v>0.13034866252210028</v>
+      </c>
+      <c r="AA17" s="22">
+        <f t="shared" si="4"/>
+        <v>0.28676705754862064</v>
+      </c>
+      <c r="AB17" s="22">
+        <f t="shared" si="5"/>
+        <v>0.27314764421135218</v>
+      </c>
+      <c r="AC17" s="22">
+        <f t="shared" si="6"/>
+        <v>0.22736701506967441</v>
+      </c>
+      <c r="AD17" s="22">
+        <f t="shared" si="7"/>
+        <v>0.17436877948845267</v>
+      </c>
+      <c r="AE17" s="22">
+        <f t="shared" si="8"/>
+        <v>0.33564330551488897</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="9"/>
+        <v>0.19616808436474006</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="10"/>
+        <v>0.12070112755418103</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="11"/>
+        <v>0.15197016748662057</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="12"/>
+        <v>1.9913019270909462</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="13"/>
+        <v>9.146298701298701E-2</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="14"/>
+        <v>0.161</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="15"/>
+        <v>7.7549047619047615E-2</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="16"/>
+        <v>3.8272720000000002</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="17"/>
+        <v>7.48177338442442E-2</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="18"/>
+        <v>6.6450095115705085E-2</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="19"/>
+        <v>5.1661405727158882E-2</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="20"/>
+        <v>7.755084755362876E-2</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="21"/>
+        <v>4.8336242170243376E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44" ht="15.75">
       <c r="B18" s="18">
         <v>0.83860840000000003</v>
       </c>
@@ -5372,14 +7480,103 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="20">
-        <v>0</v>
-      </c>
-      <c r="U18" s="22">
+      <c r="T18" s="22">
+        <v>0</v>
+      </c>
+      <c r="U18" s="21">
         <v>6.2002299999999996E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" ht="15.75">
+      <c r="V18" s="22">
+        <f t="shared" si="0"/>
+        <v>62.002299999999998</v>
+      </c>
+      <c r="W18" s="21"/>
+      <c r="X18" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11315374489050607</v>
+      </c>
+      <c r="Y18" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94607687399200613</v>
+      </c>
+      <c r="Z18" s="21">
+        <f t="shared" si="3"/>
+        <v>0.11267823291024621</v>
+      </c>
+      <c r="AA18" s="22">
+        <f t="shared" si="4"/>
+        <v>0.24789211240254169</v>
+      </c>
+      <c r="AB18" s="22">
+        <f t="shared" si="5"/>
+        <v>0.24278308149499578</v>
+      </c>
+      <c r="AC18" s="22">
+        <f t="shared" si="6"/>
+        <v>0.19319544246143233</v>
+      </c>
+      <c r="AD18" s="22">
+        <f t="shared" si="7"/>
+        <v>0.15328970109800363</v>
+      </c>
+      <c r="AE18" s="22">
+        <f t="shared" si="8"/>
+        <v>0.30674569371281285</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="9"/>
+        <v>0.16867674286253465</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="10"/>
+        <v>0.10634889208420227</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="11"/>
+        <v>0.13575937963579388</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="13"/>
+        <v>7.7923571428571425E-2</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="14"/>
+        <v>0.12461134380453753</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="15"/>
+        <v>6.7620142857142851E-2</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="17"/>
+        <v>6.2129683412589752E-2</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="18"/>
+        <v>5.7182378948542313E-2</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="19"/>
+        <v>4.2527443959664818E-2</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="20"/>
+        <v>6.6189407722776705E-2</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="21"/>
+        <v>4.0371404066690778E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:44" ht="15.75">
       <c r="B19" s="18">
         <v>0.90189960000000013</v>
       </c>
@@ -5399,14 +7596,105 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="S19" s="19"/>
-      <c r="T19" s="20">
+      <c r="T19" s="22">
         <v>1.09388</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="21">
         <v>0.104699</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" ht="15.75">
+      <c r="V19" s="22">
+        <f t="shared" si="0"/>
+        <v>104.699</v>
+      </c>
+      <c r="W19" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.16451054511988039</v>
+      </c>
+      <c r="Y19" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94907082252296482</v>
+      </c>
+      <c r="Z19" s="21">
+        <f t="shared" si="3"/>
+        <v>0.14661523120593115</v>
+      </c>
+      <c r="AA19" s="22">
+        <f t="shared" si="4"/>
+        <v>0.32255350865304855</v>
+      </c>
+      <c r="AB19" s="22">
+        <f t="shared" si="5"/>
+        <v>0.3004084977106995</v>
+      </c>
+      <c r="AC19" s="22">
+        <f t="shared" si="6"/>
+        <v>0.25931365052277777</v>
+      </c>
+      <c r="AD19" s="22">
+        <f t="shared" si="7"/>
+        <v>0.19348153561794218</v>
+      </c>
+      <c r="AE19" s="22">
+        <f t="shared" si="8"/>
+        <v>0.36094533672998336</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="9"/>
+        <v>0.22159649147284446</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="10"/>
+        <v>0.13368821219936569</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="11"/>
+        <v>0.16645803383750996</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="12"/>
+        <v>1.9035791753326343</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="13"/>
+        <v>0.1056487012987013</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="14"/>
+        <v>0.19912565445026181</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="15"/>
+        <v>8.7951904761904759E-2</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="16"/>
+        <v>3.73678</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="17"/>
+        <v>8.6927009492085178E-2</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="18"/>
+        <v>7.5016338656585524E-2</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="19"/>
+        <v>6.0447334633221481E-2</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="20"/>
+        <v>8.8130130845773286E-2</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="21"/>
+        <v>5.5898451258989131E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:44" ht="15.75">
       <c r="B20" s="18">
         <v>0.91772240000000005</v>
       </c>
@@ -5426,14 +7714,105 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="20">
+      <c r="T20" s="22">
         <v>1.0585175</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="21">
         <v>0.12052700000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" ht="15.75">
+      <c r="V20" s="22">
+        <f t="shared" si="0"/>
+        <v>120.52700000000002</v>
+      </c>
+      <c r="W20" s="21">
+        <v>0.56125000000000003</v>
+      </c>
+      <c r="X20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.18191414312768497</v>
+      </c>
+      <c r="Y20" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95018070261552479</v>
+      </c>
+      <c r="Z20" s="21">
+        <f t="shared" si="3"/>
+        <v>0.15736335956032821</v>
+      </c>
+      <c r="AA20" s="22">
+        <f t="shared" si="4"/>
+        <v>0.34619939103272207</v>
+      </c>
+      <c r="AB20" s="22">
+        <f t="shared" si="5"/>
+        <v>0.31810215338133829</v>
+      </c>
+      <c r="AC20" s="22">
+        <f t="shared" si="6"/>
+        <v>0.28065624625771329</v>
+      </c>
+      <c r="AD20" s="22">
+        <f t="shared" si="7"/>
+        <v>0.20597459841607468</v>
+      </c>
+      <c r="AE20" s="22">
+        <f t="shared" si="8"/>
+        <v>0.37707659434877766</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="9"/>
+        <v>0.23845562648100485</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="10"/>
+        <v>0.14216496984756141</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="11"/>
+        <v>0.17583096082997279</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="12"/>
+        <v>1.770815595222347</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="13"/>
+        <v>0.11592662337662339</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="14"/>
+        <v>0.22674869109947648</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="15"/>
+        <v>9.5489047619047626E-2</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="16"/>
+        <v>3.5953862500000002</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="17"/>
+        <v>9.5136727605063726E-2</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="18"/>
+        <v>8.0692943810081297E-2</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="19"/>
+        <v>6.643729315481324E-2</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="20"/>
+        <v>9.5177707899029976E-2</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="21"/>
+        <v>6.1006492551014223E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:44" ht="15.75">
       <c r="B21" s="18">
         <v>0.90981100000000004</v>
       </c>
@@ -5453,14 +7832,105 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="S21" s="19"/>
-      <c r="T21" s="20">
+      <c r="T21" s="22">
         <v>1.1820504999999999</v>
       </c>
-      <c r="U21" s="22">
+      <c r="U21" s="21">
         <v>0.12848330000000002</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" ht="15.75">
+      <c r="V21" s="22">
+        <f t="shared" si="0"/>
+        <v>128.48330000000001</v>
+      </c>
+      <c r="W21" s="21">
+        <v>0.62675000000000003</v>
+      </c>
+      <c r="X21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19041304799870865</v>
+      </c>
+      <c r="Y21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95073860879321226</v>
+      </c>
+      <c r="Z21" s="21">
+        <f t="shared" si="3"/>
+        <v>0.1625004400217637</v>
+      </c>
+      <c r="AA21" s="22">
+        <f t="shared" si="4"/>
+        <v>0.35750096804788017</v>
+      </c>
+      <c r="AB21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.32647663944397426</v>
+      </c>
+      <c r="AC21" s="22">
+        <f t="shared" si="6"/>
+        <v>0.29091862761019288</v>
+      </c>
+      <c r="AD21" s="22">
+        <f t="shared" si="7"/>
+        <v>0.21191050220283475</v>
+      </c>
+      <c r="AE21" s="22">
+        <f t="shared" si="8"/>
+        <v>0.38463731947981583</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="9"/>
+        <v>0.24652849485212744</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="10"/>
+        <v>0.14618940146966214</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="11"/>
+        <v>0.1802593557714765</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="12"/>
+        <v>2.2575475840140267</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="13"/>
+        <v>0.12109305194805196</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="14"/>
+        <v>0.24063403141361261</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="15"/>
+        <v>9.9277761904761924E-2</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="16"/>
+        <v>4.0893217499999999</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="17"/>
+        <v>9.911618511652924E-2</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="18"/>
+        <v>8.3410397232605682E-2</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="19"/>
+        <v>6.9349665377914579E-2</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="20"/>
+        <v>9.8561185159157072E-2</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="21"/>
+        <v>6.3477489693280237E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:44" ht="15.75">
       <c r="B22" s="18">
         <v>0.98101360000000004</v>
       </c>
@@ -5474,14 +7944,105 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="S22" s="19"/>
-      <c r="T22" s="20">
+      <c r="T22" s="22">
         <v>1.0726624999999999</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="21">
         <v>0.1554625</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" ht="15.75">
+      <c r="V22" s="22">
+        <f t="shared" si="0"/>
+        <v>155.46250000000001</v>
+      </c>
+      <c r="W22" s="21">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="X22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21818482262955685</v>
+      </c>
+      <c r="Y22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95263042563635092</v>
+      </c>
+      <c r="Z22" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17883479080373638</v>
+      </c>
+      <c r="AA22" s="22">
+        <f t="shared" si="4"/>
+        <v>0.39343653976822007</v>
+      </c>
+      <c r="AB22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.35277849007681211</v>
+      </c>
+      <c r="AC22" s="22">
+        <f t="shared" si="6"/>
+        <v>0.32379979279733473</v>
+      </c>
+      <c r="AD22" s="22">
+        <f t="shared" si="7"/>
+        <v>0.23064451535526226</v>
+      </c>
+      <c r="AE22" s="22">
+        <f t="shared" si="8"/>
+        <v>0.40809302540205422</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="9"/>
+        <v>0.27225832500632491</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="10"/>
+        <v>0.15887805245004025</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="11"/>
+        <v>0.19413664878940001</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="12"/>
+        <v>1.8232929827020417</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="13"/>
+        <v>0.13861201298701298</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="14"/>
+        <v>0.28771815008726004</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="15"/>
+        <v>0.112125</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="16"/>
+        <v>3.6519437499999996</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="17"/>
+        <v>0.11199741968510503</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="18"/>
+        <v>9.2068452764230785E-2</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="19"/>
+        <v>7.8813519541836422E-2</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="20"/>
+        <v>0.10938060571297382</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="21"/>
+        <v>7.1455432078942741E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:44" ht="15.75">
       <c r="B23" s="18">
         <v>1.0126592000000001</v>
       </c>
@@ -5495,14 +8056,105 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="S23" s="19"/>
-      <c r="T23" s="20">
+      <c r="T23" s="22">
         <v>0.98543499999999995</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="21">
         <v>0.13077000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" ht="15.75">
+      <c r="V23" s="22">
+        <f t="shared" si="0"/>
+        <v>130.77000000000004</v>
+      </c>
+      <c r="W23" s="21">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="X23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19282758535296851</v>
+      </c>
+      <c r="Y23" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95089895519248302</v>
+      </c>
+      <c r="Z23" s="21">
+        <f t="shared" si="3"/>
+        <v>0.16394739170466466</v>
+      </c>
+      <c r="AA23" s="22">
+        <f t="shared" si="4"/>
+        <v>0.3606842617502623</v>
+      </c>
+      <c r="AB23" s="22">
+        <f t="shared" si="5"/>
+        <v>0.32882627927359448</v>
+      </c>
+      <c r="AC23" s="22">
+        <f t="shared" si="6"/>
+        <v>0.29381618170444435</v>
+      </c>
+      <c r="AD23" s="22">
+        <f t="shared" si="7"/>
+        <v>0.2135785165220434</v>
+      </c>
+      <c r="AE23" s="22">
+        <f t="shared" si="8"/>
+        <v>0.3867503798874059</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="9"/>
+        <v>0.24880405724183879</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="10"/>
+        <v>0.14731992717188519</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="11"/>
+        <v>0.1815009573433628</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="12"/>
+        <v>1.5129312999092686</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="13"/>
+        <v>0.12257792207792209</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="14"/>
+        <v>0.24462478184991279</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="15"/>
+        <v>0.10036666666666667</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="16"/>
+        <v>3.3031725000000001</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="17"/>
+        <v>0.10024339306111009</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="18"/>
+        <v>8.4176303068558042E-2</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="19"/>
+        <v>7.0175622968191451E-2</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="20"/>
+        <v>9.9515905017256587E-2</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="21"/>
+        <v>6.4176850881148648E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:44" ht="15.75">
       <c r="B24" s="18">
         <v>1.0284820000000001</v>
       </c>
@@ -5516,14 +8168,105 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="S24" s="19"/>
-      <c r="T24" s="20">
+      <c r="T24" s="22">
         <v>1.0245695000000001</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="21">
         <v>0.14972749999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" ht="15.75">
+      <c r="V24" s="22">
+        <f t="shared" si="0"/>
+        <v>149.72749999999999</v>
+      </c>
+      <c r="W24" s="21">
+        <v>0.54325000000000001</v>
+      </c>
+      <c r="X24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21240487684409259</v>
+      </c>
+      <c r="Y24" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95222827992426895</v>
+      </c>
+      <c r="Z24" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17548861996083148</v>
+      </c>
+      <c r="AA24" s="22">
+        <f t="shared" si="4"/>
+        <v>0.38607496391382928</v>
+      </c>
+      <c r="AB24" s="22">
+        <f t="shared" si="5"/>
+        <v>0.34742918262511191</v>
+      </c>
+      <c r="AC24" s="22">
+        <f t="shared" si="6"/>
+        <v>0.31703392565616684</v>
+      </c>
+      <c r="AD24" s="22">
+        <f t="shared" si="7"/>
+        <v>0.2268234687224383</v>
+      </c>
+      <c r="AE24" s="22">
+        <f t="shared" si="8"/>
+        <v>0.40335698696174183</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="9"/>
+        <v>0.26698019527988381</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="10"/>
+        <v>0.15629154735421516</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="11"/>
+        <v>0.19131796321818598</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="12"/>
+        <v>1.6482716019107939</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="13"/>
+        <v>0.13488798701298699</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="14"/>
+        <v>0.27770942408376964</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="15"/>
+        <v>0.1093940476190476</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="16"/>
+        <v>3.4596482500000003</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="17"/>
+        <v>0.10933113759572938</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="18"/>
+        <v>9.029272816579309E-2</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="19"/>
+        <v>7.6850193901538161E-2</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="20"/>
+        <v>0.10715688119134983</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="21"/>
+        <v>6.9806533686087829E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" ht="15.75">
       <c r="B25" s="18">
         <v>1.0759504000000002</v>
       </c>
@@ -5537,14 +8280,105 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="S25" s="19"/>
-      <c r="T25" s="20">
+      <c r="T25" s="22">
         <v>1.2216564999999999</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="21">
         <v>6.58136E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" ht="15.75">
+      <c r="V25" s="22">
+        <f t="shared" si="0"/>
+        <v>65.813599999999994</v>
+      </c>
+      <c r="W25" s="21">
+        <v>0.64775000000000005</v>
+      </c>
+      <c r="X25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11807950854289714</v>
+      </c>
+      <c r="Y25" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94634412734029871</v>
+      </c>
+      <c r="Z25" s="21">
+        <f t="shared" si="3"/>
+        <v>0.11610717174023615</v>
+      </c>
+      <c r="AA25" s="22">
+        <f t="shared" si="4"/>
+        <v>0.25543577782851956</v>
+      </c>
+      <c r="AB25" s="22">
+        <f t="shared" si="5"/>
+        <v>0.24874253988753697</v>
+      </c>
+      <c r="AC25" s="22">
+        <f t="shared" si="6"/>
+        <v>0.19977992575974132</v>
+      </c>
+      <c r="AD25" s="22">
+        <f t="shared" si="7"/>
+        <v>0.15740828099023146</v>
+      </c>
+      <c r="AE25" s="22">
+        <f t="shared" si="8"/>
+        <v>0.31248155694362506</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="9"/>
+        <v>0.17399985110361293</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="10"/>
+        <v>0.10915570533701899</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="11"/>
+        <v>0.13894749423714406</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="12"/>
+        <v>2.4273124692312038</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="13"/>
+        <v>8.0398441558441558E-2</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="14"/>
+        <v>0.13126282722513091</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="15"/>
+        <v>6.9435047619047605E-2</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="16"/>
+        <v>4.247682750000001</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="17"/>
+        <v>6.4551558928393149E-2</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="18"/>
+        <v>5.8977447720652706E-2</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="19"/>
+        <v>4.4264656448719214E-2</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="20"/>
+        <v>6.8382628225023681E-2</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="21"/>
+        <v>4.1895336641230074E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:44" ht="15.75">
       <c r="B26" s="18">
         <v>1.107596</v>
       </c>
@@ -5558,14 +8392,105 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="20">
+      <c r="T26" s="22">
         <v>1.2027965</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="21">
         <v>8.0492000000000008E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" ht="15.75">
+      <c r="V26" s="22">
+        <f t="shared" si="0"/>
+        <v>80.492000000000004</v>
+      </c>
+      <c r="W26" s="21">
+        <v>0.63775000000000004</v>
+      </c>
+      <c r="X26" s="22">
+        <f t="shared" si="1"/>
+        <v>0.13634197720488445</v>
+      </c>
+      <c r="Y26" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94737339597503678</v>
+      </c>
+      <c r="Z26" s="21">
+        <f t="shared" si="3"/>
+        <v>0.12846868328261241</v>
+      </c>
+      <c r="AA26" s="22">
+        <f t="shared" si="4"/>
+        <v>0.28263110322174734</v>
+      </c>
+      <c r="AB26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.2699563760381421</v>
+      </c>
+      <c r="AC26" s="22">
+        <f t="shared" si="6"/>
+        <v>0.22370402463492053</v>
+      </c>
+      <c r="AD26" s="22">
+        <f t="shared" si="7"/>
+        <v>0.17214265490274783</v>
+      </c>
+      <c r="AE26" s="22">
+        <f t="shared" si="8"/>
+        <v>0.3326432841599416</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="9"/>
+        <v>0.19323643555990255</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="10"/>
+        <v>0.11918691189346323</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="11"/>
+        <v>0.15027022125524792</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="12"/>
+        <v>2.3456347515656559</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="13"/>
+        <v>8.9929870129870124E-2</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="14"/>
+        <v>0.15687958115183251</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="15"/>
+        <v>7.6424761904761912E-2</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="16"/>
+        <v>4.1722727500000012</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="17"/>
+        <v>7.3443969166556655E-2</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="18"/>
+        <v>6.5462133623477053E-2</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="19"/>
+        <v>5.0668692322602911E-2</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="20"/>
+        <v>7.6335333765300828E-2</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="21"/>
+        <v>4.7476033140107683E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:44" ht="15.75">
       <c r="B27" s="18">
         <v>1.1234188000000001</v>
       </c>
@@ -5579,14 +8504,105 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="20">
+      <c r="T27" s="22">
         <v>1.1900660000000001</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="21">
         <v>9.3965999999999994E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" ht="15.75">
+      <c r="V27" s="22">
+        <f t="shared" si="0"/>
+        <v>93.965999999999994</v>
+      </c>
+      <c r="W27" s="21">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="X27" s="22">
+        <f t="shared" si="1"/>
+        <v>0.15227985696260726</v>
+      </c>
+      <c r="Y27" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9483182105041722</v>
+      </c>
+      <c r="Z27" s="21">
+        <f t="shared" si="3"/>
+        <v>0.13885936443184121</v>
+      </c>
+      <c r="AA27" s="22">
+        <f t="shared" si="4"/>
+        <v>0.30549060175005072</v>
+      </c>
+      <c r="AB27" s="22">
+        <f t="shared" si="5"/>
+        <v>0.28748685269002139</v>
+      </c>
+      <c r="AC27" s="22">
+        <f t="shared" si="6"/>
+        <v>0.24402635384598975</v>
+      </c>
+      <c r="AD27" s="22">
+        <f t="shared" si="7"/>
+        <v>0.18440095795229189</v>
+      </c>
+      <c r="AE27" s="22">
+        <f t="shared" si="8"/>
+        <v>0.34902289918349688</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="9"/>
+        <v>0.20945870013476175</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="10"/>
+        <v>0.12752091352480399</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="11"/>
+        <v>0.15959812983805804</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="12"/>
+        <v>2.2913632826845038</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="13"/>
+        <v>9.8679220779220769E-2</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="14"/>
+        <v>0.18039441535776615</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="15"/>
+        <v>8.2840952380952376E-2</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="16"/>
+        <v>4.1213709999999999</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="17"/>
+        <v>8.1104437179798039E-2</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="18"/>
+        <v>7.0928070665839005E-2</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="19"/>
+        <v>5.6215031978002282E-2</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="20"/>
+        <v>8.3072402000068699E-2</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="21"/>
+        <v>5.2266659994520667E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:44" ht="15.75">
       <c r="B28" s="18">
         <v>1.1392416000000001</v>
       </c>
@@ -5600,14 +8616,105 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="S28" s="19"/>
-      <c r="T28" s="20">
+      <c r="T28" s="22">
         <v>1.0344709999999999</v>
       </c>
-      <c r="U28" s="22">
+      <c r="U28" s="21">
         <v>0.1385033</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" ht="15.75">
+      <c r="V28" s="22">
+        <f t="shared" si="0"/>
+        <v>138.5033</v>
+      </c>
+      <c r="W28" s="21">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="X28" s="22">
+        <f t="shared" si="1"/>
+        <v>0.200905588812792</v>
+      </c>
+      <c r="Y28" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95144122431807032</v>
+      </c>
+      <c r="Z28" s="21">
+        <f t="shared" si="3"/>
+        <v>0.16874977554902115</v>
+      </c>
+      <c r="AA28" s="22">
+        <f t="shared" si="4"/>
+        <v>0.37124950620784658</v>
+      </c>
+      <c r="AB28" s="22">
+        <f t="shared" si="5"/>
+        <v>0.33659650848992528</v>
+      </c>
+      <c r="AC28" s="22">
+        <f t="shared" si="6"/>
+        <v>0.30345457299035322</v>
+      </c>
+      <c r="AD28" s="22">
+        <f t="shared" si="7"/>
+        <v>0.21910250468453638</v>
+      </c>
+      <c r="AE28" s="22">
+        <f t="shared" si="8"/>
+        <v>0.39371305572944337</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="9"/>
+        <v>0.25636178690341482</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="10"/>
+        <v>0.15106281181574666</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="11"/>
+        <v>0.18560422945996446</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="12"/>
+        <v>1.6835187181780265</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="13"/>
+        <v>0.12759954545454544</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="14"/>
+        <v>0.25812094240837696</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="15"/>
+        <v>0.10404919047619048</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="16"/>
+        <v>3.4992385000000001</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="17"/>
+        <v>0.1040041402906751</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="18"/>
+        <v>8.6719815282659624E-2</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="19"/>
+        <v>7.2934428393197928E-2</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="20"/>
+        <v>0.10268983786254617</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="21"/>
+        <v>6.6508405762532835E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:44" ht="15.75">
       <c r="B29" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -5621,14 +8728,105 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="20">
+      <c r="T29" s="22">
         <v>1.0967089999999999</v>
       </c>
-      <c r="U29" s="22">
+      <c r="U29" s="21">
         <v>0.12721670000000002</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" ht="15.75">
+      <c r="V29" s="22">
+        <f t="shared" si="0"/>
+        <v>127.21670000000002</v>
+      </c>
+      <c r="W29" s="21">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="X29" s="22">
+        <f t="shared" si="1"/>
+        <v>0.18907035955375248</v>
+      </c>
+      <c r="Y29" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95064979314213593</v>
+      </c>
+      <c r="Z29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.16169345927668138</v>
+      </c>
+      <c r="AA29" s="22">
+        <f t="shared" si="4"/>
+        <v>0.3557256104086991</v>
+      </c>
+      <c r="AB29" s="22">
+        <f t="shared" si="5"/>
+        <v>0.32516448457042801</v>
+      </c>
+      <c r="AC29" s="22">
+        <f t="shared" si="6"/>
+        <v>0.28930395005487797</v>
+      </c>
+      <c r="AD29" s="22">
+        <f t="shared" si="7"/>
+        <v>0.21097948759949922</v>
+      </c>
+      <c r="AE29" s="22">
+        <f t="shared" si="8"/>
+        <v>0.3834557210000048</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="9"/>
+        <v>0.2452597093041575</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="10"/>
+        <v>0.14555832262048546</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="11"/>
+        <v>0.17956581788552939</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="12"/>
+        <v>1.9144266936025442</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="13"/>
+        <v>0.12027058441558441</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="14"/>
+        <v>0.23842356020942412</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="15"/>
+        <v>9.8674619047619053E-2</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="16"/>
+        <v>3.7480915000000006</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="17"/>
+        <v>9.8488728088108948E-2</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="18"/>
+        <v>8.2983335154841895E-2</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="19"/>
+        <v>6.889008932181559E-2</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="20"/>
+        <v>9.8029049822796602E-2</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="21"/>
+        <v>6.3088085469016952E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:44" ht="15.75">
       <c r="B30" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -5642,14 +8840,105 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="20">
+      <c r="T30" s="22">
         <v>1.113683</v>
       </c>
-      <c r="U30" s="22">
+      <c r="U30" s="21">
         <v>0.15728999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" ht="15.75">
+      <c r="V30" s="22">
+        <f t="shared" si="0"/>
+        <v>157.29</v>
+      </c>
+      <c r="W30" s="21">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="X30" s="22">
+        <f t="shared" si="1"/>
+        <v>0.22001377317582541</v>
+      </c>
+      <c r="Y30" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95275857233013117</v>
+      </c>
+      <c r="Z30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.17988812536810531</v>
+      </c>
+      <c r="AA30" s="22">
+        <f t="shared" si="4"/>
+        <v>0.39575387580983168</v>
+      </c>
+      <c r="AB30" s="22">
+        <f t="shared" si="5"/>
+        <v>0.35445841754508933</v>
+      </c>
+      <c r="AC30" s="22">
+        <f t="shared" si="6"/>
+        <v>0.32593271281893538</v>
+      </c>
+      <c r="AD30" s="22">
+        <f t="shared" si="7"/>
+        <v>0.23184561908947088</v>
+      </c>
+      <c r="AE30" s="22">
+        <f t="shared" si="8"/>
+        <v>0.40957685212789269</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="9"/>
+        <v>0.27392056558461958</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="10"/>
+        <v>0.15969093651647848</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="11"/>
+        <v>0.19502146640073997</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="12"/>
+        <v>1.9802186367171488</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="13"/>
+        <v>0.13979870129870128</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="14"/>
+        <v>0.29090750436300172</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="15"/>
+        <v>0.11299523809523809</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="16"/>
+        <v>3.8159605000000005</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="17"/>
+        <v>0.11283959541218094</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="18"/>
+        <v>9.2627644340950582E-2</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="19"/>
+        <v>7.9434117407064644E-2</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="20"/>
+        <v>0.11008136400535129</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="21"/>
+        <v>7.1976000827902911E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:44" ht="15.75">
       <c r="B31" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -5663,14 +8952,105 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="S31" s="19"/>
-      <c r="T31" s="20">
+      <c r="T31" s="22">
         <v>0.99958000000000002</v>
       </c>
-      <c r="U31" s="22">
+      <c r="U31" s="21">
         <v>0.1336167</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" ht="15.75">
+      <c r="V31" s="22">
+        <f t="shared" si="0"/>
+        <v>133.61670000000001</v>
+      </c>
+      <c r="W31" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="X31" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19581664448159494</v>
+      </c>
+      <c r="Y31" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95109856952527871</v>
+      </c>
+      <c r="Z31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.16573121706977734</v>
+      </c>
+      <c r="AA31" s="22">
+        <f t="shared" si="4"/>
+        <v>0.36460867755351017</v>
+      </c>
+      <c r="AB31" s="22">
+        <f t="shared" si="5"/>
+        <v>0.33171750908507203</v>
+      </c>
+      <c r="AC31" s="22">
+        <f t="shared" si="6"/>
+        <v>0.29739248525120465</v>
+      </c>
+      <c r="AD31" s="22">
+        <f t="shared" si="7"/>
+        <v>0.21563253308547958</v>
+      </c>
+      <c r="AE31" s="22">
+        <f t="shared" si="8"/>
+        <v>0.38934561574530741</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="9"/>
+        <v>0.25161041451825084</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="10"/>
+        <v>0.14871186086142182</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="11"/>
+        <v>0.18302822628275911</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="12"/>
+        <v>1.5611199450743134</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="13"/>
+        <v>0.12442642857142856</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="14"/>
+        <v>0.24959284467713788</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="15"/>
+        <v>0.10172223809523809</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="16"/>
+        <v>3.3597300000000003</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="17"/>
+        <v>0.1016368101067899</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="18"/>
+        <v>8.5120813212750238E-2</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="19"/>
+        <v>7.1197247063414709E-2</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="20"/>
+        <v>0.10069391277313836</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="21"/>
+        <v>6.5041040769774988E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:44" ht="15.75">
       <c r="B32" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -5681,14 +9061,105 @@
       <c r="E32" s="17"/>
       <c r="F32" s="16"/>
       <c r="S32" s="19"/>
-      <c r="T32" s="20">
+      <c r="T32" s="22">
         <v>1.060875</v>
       </c>
-      <c r="U32" s="22">
+      <c r="U32" s="21">
         <v>0.134655</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" ht="15.75">
+      <c r="V32" s="22">
+        <f t="shared" si="0"/>
+        <v>134.655</v>
+      </c>
+      <c r="W32" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="X32" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19690232714017566</v>
+      </c>
+      <c r="Y32" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95117137648131278</v>
+      </c>
+      <c r="Z32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.16637713350150868</v>
+      </c>
+      <c r="AA32" s="22">
+        <f t="shared" si="4"/>
+        <v>0.36602969370331911</v>
+      </c>
+      <c r="AB32" s="22">
+        <f t="shared" si="5"/>
+        <v>0.33276294377164528</v>
+      </c>
+      <c r="AC32" s="22">
+        <f t="shared" si="6"/>
+        <v>0.29868857416758893</v>
+      </c>
+      <c r="AD32" s="22">
+        <f t="shared" si="7"/>
+        <v>0.21637565349899002</v>
+      </c>
+      <c r="AE32" s="22">
+        <f t="shared" si="8"/>
+        <v>0.39028270657542879</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="9"/>
+        <v>0.25262685812674757</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="10"/>
+        <v>0.14921538986855049</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="11"/>
+        <v>0.18358032826222803</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="12"/>
+        <v>1.7795037935371172</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="13"/>
+        <v>0.12510064935064935</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="14"/>
+        <v>0.25140488656195464</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="15"/>
+        <v>0.10221666666666665</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="16"/>
+        <v>3.6048125</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="17"/>
+        <v>0.10214238385104946</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="18"/>
+        <v>8.5462894896203942E-2</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="19"/>
+        <v>7.1568086301215389E-2</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="20"/>
+        <v>0.10112073901919426</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="21"/>
+        <v>6.5354503708422468E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:44" ht="15.75">
       <c r="B33" s="18">
         <v>1.2183556000000002</v>
       </c>
@@ -5699,14 +9170,105 @@
       <c r="E33" s="17"/>
       <c r="F33" s="16"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="20">
+      <c r="T33" s="22">
         <v>1.1297139999999999</v>
       </c>
-      <c r="U33" s="22">
+      <c r="U33" s="21">
         <v>0.12835199999999999</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" ht="15.75">
+      <c r="V33" s="22">
+        <f t="shared" si="0"/>
+        <v>128.352</v>
+      </c>
+      <c r="W33" s="21">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="X33" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19027403668803555</v>
+      </c>
+      <c r="Y33" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95072940186522681</v>
+      </c>
+      <c r="Z33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.16241697011142986</v>
+      </c>
+      <c r="AA33" s="22">
+        <f t="shared" si="4"/>
+        <v>0.35731733424514572</v>
+      </c>
+      <c r="AB33" s="22">
+        <f t="shared" si="5"/>
+        <v>0.32634097476213519</v>
+      </c>
+      <c r="AC33" s="22">
+        <f t="shared" si="6"/>
+        <v>0.29075156977530586</v>
+      </c>
+      <c r="AD33" s="22">
+        <f t="shared" si="7"/>
+        <v>0.21181422768860697</v>
+      </c>
+      <c r="AE33" s="22">
+        <f t="shared" si="8"/>
+        <v>0.38451520514598814</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="9"/>
+        <v>0.24639724757256182</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="10"/>
+        <v>0.14612414501089085</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="11"/>
+        <v>0.18018765590443875</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="12"/>
+        <v>2.0434704810877866</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="13"/>
+        <v>0.1210077922077922</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="14"/>
+        <v>0.24040488656195461</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="15"/>
+        <v>9.9215238095238079E-2</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="16"/>
+        <v>3.8800589999999997</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="17"/>
+        <v>9.9051244304918587E-2</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="18"/>
+        <v>8.3366221079508224E-2</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="19"/>
+        <v>6.9302093625689704E-2</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="20"/>
+        <v>9.850613310154846E-2</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="21"/>
+        <v>6.3437190530912124E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:44" ht="15.75">
       <c r="B34" s="18">
         <v>1.2658240000000001</v>
       </c>
@@ -5717,14 +9279,105 @@
       <c r="E34" s="17"/>
       <c r="F34" s="16"/>
       <c r="S34" s="19"/>
-      <c r="T34" s="20">
+      <c r="T34" s="22">
         <v>1.3197285000000001</v>
       </c>
-      <c r="U34" s="22">
+      <c r="U34" s="21">
         <v>0.110773</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" ht="15.75">
+      <c r="V34" s="22">
+        <f t="shared" si="0"/>
+        <v>110.773</v>
+      </c>
+      <c r="W34" s="21">
+        <v>0.69974999999999998</v>
+      </c>
+      <c r="X34" s="22">
+        <f t="shared" si="1"/>
+        <v>0.17127248032381742</v>
+      </c>
+      <c r="Y34" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94949673935909129</v>
+      </c>
+      <c r="Z34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.15082950914264312</v>
+      </c>
+      <c r="AA34" s="22">
+        <f t="shared" si="4"/>
+        <v>0.33182492011381487</v>
+      </c>
+      <c r="AB34" s="22">
+        <f t="shared" si="5"/>
+        <v>0.30737465946913101</v>
+      </c>
+      <c r="AC34" s="22">
+        <f t="shared" si="6"/>
+        <v>0.26766068403854976</v>
+      </c>
+      <c r="AD34" s="22">
+        <f t="shared" si="7"/>
+        <v>0.1983921962311247</v>
+      </c>
+      <c r="AE34" s="22">
+        <f t="shared" si="8"/>
+        <v>0.36732243543665433</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="9"/>
+        <v>0.22820166515742601</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="10"/>
+        <v>0.13702128719912965</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="11"/>
+        <v>0.17015099062758857</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="12"/>
+        <v>2.8767608181573179</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="13"/>
+        <v>0.10959285714285714</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="14"/>
+        <v>0.20972600349040141</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="15"/>
+        <v>9.0844285714285711E-2</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="16"/>
+        <v>4.6398147499999993</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="17"/>
+        <v>9.0126881488177144E-2</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="18"/>
+        <v>7.724061087533679E-2</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="19"/>
+        <v>6.2778990266730464E-2</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="20"/>
+        <v>9.0888238157212628E-2</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="21"/>
+        <v>5.7891101773406464E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:44" ht="15.75">
       <c r="B35" s="18">
         <v>1.2737354000000001</v>
       </c>
@@ -5735,14 +9388,105 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="S35" s="19"/>
-      <c r="T35" s="20">
+      <c r="T35" s="22">
         <v>1.1570609999999999</v>
       </c>
-      <c r="U35" s="22">
+      <c r="U35" s="21">
         <v>7.6975600000000005E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" ht="15.75">
+      <c r="V35" s="22">
+        <f t="shared" si="0"/>
+        <v>76.9756</v>
+      </c>
+      <c r="W35" s="21">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="X35" s="22">
+        <f t="shared" si="1"/>
+        <v>0.13206042940562973</v>
+      </c>
+      <c r="Y35" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94712682140102389</v>
+      </c>
+      <c r="Z35" s="21">
+        <f t="shared" si="3"/>
+        <v>0.12561708530421617</v>
+      </c>
+      <c r="AA35" s="22">
+        <f t="shared" si="4"/>
+        <v>0.2763575876692756</v>
+      </c>
+      <c r="AB35" s="22">
+        <f t="shared" si="5"/>
+        <v>0.26509867595476544</v>
+      </c>
+      <c r="AC35" s="22">
+        <f t="shared" si="6"/>
+        <v>0.21816000040651434</v>
+      </c>
+      <c r="AD35" s="22">
+        <f t="shared" si="7"/>
+        <v>0.16875880301999244</v>
+      </c>
+      <c r="AE35" s="22">
+        <f t="shared" si="8"/>
+        <v>0.32806056473049844</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="9"/>
+        <v>0.18879263192728779</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="10"/>
+        <v>0.1168845504361888</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="11"/>
+        <v>0.1476809336921128</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="12"/>
+        <v>2.1538795197895624</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="13"/>
+        <v>8.7646493506493506E-2</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="14"/>
+        <v>0.150742757417103</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="15"/>
+        <v>7.4750285714285714E-2</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="16"/>
+        <v>3.9894035000000003</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="17"/>
+        <v>7.1370785348429708E-2</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="18"/>
+        <v>6.3964429613476717E-2</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="19"/>
+        <v>4.9172218891666834E-2</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="20"/>
+        <v>7.449458669393369E-2</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="21"/>
+        <v>4.6176919895248983E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:44" ht="15.75">
       <c r="B36" s="18">
         <v>1.3053810000000001</v>
       </c>
@@ -5753,14 +9497,105 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="S36" s="19"/>
-      <c r="T36" s="20">
+      <c r="T36" s="22">
         <v>1.1594184999999999</v>
       </c>
-      <c r="U36" s="22">
+      <c r="U36" s="21">
         <v>9.4342600000000013E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:21">
+      <c r="V36" s="22">
+        <f t="shared" si="0"/>
+        <v>94.342600000000019</v>
+      </c>
+      <c r="W36" s="21">
+        <v>0.61475000000000002</v>
+      </c>
+      <c r="X36" s="22">
+        <f t="shared" si="1"/>
+        <v>0.15271554506564874</v>
+      </c>
+      <c r="Y36" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9483446181894678</v>
+      </c>
+      <c r="Z36" s="21">
+        <f t="shared" si="3"/>
+        <v>0.13913874703727014</v>
+      </c>
+      <c r="AA36" s="22">
+        <f t="shared" si="4"/>
+        <v>0.3061052434819943</v>
+      </c>
+      <c r="AB36" s="22">
+        <f t="shared" si="5"/>
+        <v>0.28795467048132606</v>
+      </c>
+      <c r="AC36" s="22">
+        <f t="shared" si="6"/>
+        <v>0.24457531991931622</v>
+      </c>
+      <c r="AD36" s="22">
+        <f t="shared" si="7"/>
+        <v>0.18472905888889579</v>
+      </c>
+      <c r="AE36" s="22">
+        <f t="shared" si="8"/>
+        <v>0.34945671816446239</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="9"/>
+        <v>0.2098955079094128</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="10"/>
+        <v>0.12774384223511426</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="11"/>
+        <v>0.15984671397521741</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="12"/>
+        <v>2.1635460408981118</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="13"/>
+        <v>9.8923766233766253E-2</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="14"/>
+        <v>0.18105165794066322</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="15"/>
+        <v>8.3020285714285713E-2</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="16"/>
+        <v>3.9988297500000001</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="17"/>
+        <v>8.1312654874753532E-2</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="18"/>
+        <v>7.1075217755642697E-2</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="19"/>
+        <v>5.6366140855542333E-2</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="20"/>
+        <v>8.325417154431311E-2</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="21"/>
+        <v>5.2396670723061756E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44">
       <c r="B37" s="18">
         <v>1.3132924000000001</v>
       </c>
@@ -5770,8 +9605,92 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="2:21">
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:44">
       <c r="B38" s="18">
         <v>1.3291152000000002</v>
       </c>
@@ -5781,8 +9700,92 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="2:21">
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:44">
       <c r="B39" s="18">
         <v>1.3291152000000002</v>
       </c>
@@ -5792,8 +9795,92 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="2:21">
+      <c r="V39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44">
       <c r="B40" s="18">
         <v>1.3449380000000002</v>
       </c>
@@ -5803,8 +9890,92 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="2:21">
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:44">
       <c r="B41" s="18">
         <v>1.3449380000000002</v>
       </c>
@@ -5814,8 +9985,92 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="2:21">
+      <c r="V41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:44">
       <c r="B42" s="18">
         <v>1.3924064</v>
       </c>
@@ -5825,8 +10080,92 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="2:21">
+      <c r="V42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:44">
       <c r="B43" s="18">
         <v>1.3924064</v>
       </c>
@@ -5836,8 +10175,92 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="2:21">
+      <c r="V43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:44">
       <c r="B44" s="18">
         <v>1.4082292000000001</v>
       </c>
@@ -5847,8 +10270,92 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="2:21">
+      <c r="V44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:44">
       <c r="B45" s="18">
         <v>1.4398748000000001</v>
       </c>
@@ -5858,8 +10365,92 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="2:21">
+      <c r="V45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:44">
       <c r="B46" s="18">
         <v>1.4398748000000001</v>
       </c>
@@ -5869,229 +10460,2665 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="2:21">
+      <c r="V46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:44">
       <c r="B47" s="18">
         <v>1.4556976000000001</v>
       </c>
       <c r="C47" s="18">
         <v>2129.2800000000002</v>
       </c>
-    </row>
-    <row r="48" spans="2:21">
+      <c r="V47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:44">
       <c r="B48" s="18">
         <v>1.4636090000000002</v>
       </c>
       <c r="C48" s="18">
         <v>1863.1200000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
+      <c r="V48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:44">
       <c r="B49" s="18">
         <v>1.5031660000000002</v>
       </c>
       <c r="C49" s="18">
         <v>3460.08</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="V49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:44">
       <c r="B50" s="18">
         <v>1.5031660000000002</v>
       </c>
       <c r="C50" s="18">
         <v>2129.2800000000002</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="V50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:44">
       <c r="B51" s="18">
         <v>1.5348116000000001</v>
       </c>
       <c r="C51" s="18">
         <v>1996.2</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="V51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN51">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:44">
       <c r="B52" s="18">
         <v>1.5822800000000001</v>
       </c>
       <c r="C52" s="18">
         <v>3992.4</v>
       </c>
-    </row>
-    <row r="53" spans="2:3">
+      <c r="V52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN52">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:44">
       <c r="B53" s="18">
         <v>1.6297484000000002</v>
       </c>
       <c r="C53" s="18">
         <v>4524.72</v>
       </c>
-    </row>
-    <row r="54" spans="2:3">
+      <c r="V53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:44">
       <c r="B54" s="18">
         <v>1.6772168000000001</v>
       </c>
       <c r="C54" s="18">
         <v>4391.6399999999994</v>
       </c>
-    </row>
-    <row r="55" spans="2:3">
+      <c r="V54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:44">
       <c r="B55" s="18">
         <v>1.7879764000000002</v>
       </c>
       <c r="C55" s="18">
         <v>3060.84</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
+      <c r="V55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL55">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN55">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:44">
       <c r="B56" s="18">
         <v>1.8512676000000001</v>
       </c>
       <c r="C56" s="18">
         <v>12376.44</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
+      <c r="V56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:44">
       <c r="B57" s="18">
         <v>1.8987360000000002</v>
       </c>
       <c r="C57" s="18">
         <v>10114.08</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
+      <c r="V57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL57">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM57">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN57">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:44">
       <c r="B58" s="18">
         <v>1.9462044000000003</v>
       </c>
       <c r="C58" s="18">
         <v>12775.680000000002</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
+      <c r="V58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN58">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:44">
       <c r="B59" s="18">
         <v>1.8512676000000001</v>
       </c>
       <c r="C59" s="18">
         <v>15437.28</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="V59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:44">
       <c r="B60" s="18">
         <v>1.9936728000000001</v>
       </c>
       <c r="C60" s="18">
         <v>14505.72</v>
       </c>
-    </row>
-    <row r="61" spans="2:3">
+      <c r="V60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:44">
       <c r="B61" s="18">
         <v>1.8512676000000001</v>
       </c>
       <c r="C61" s="18">
         <v>17167.32</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
+      <c r="V61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL61">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM61">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN61">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:44">
       <c r="B62" s="18">
         <v>1.9936728000000001</v>
       </c>
       <c r="C62" s="18">
         <v>17300.400000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
+      <c r="V62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:44">
       <c r="B63" s="18">
         <v>2.0253184000000002</v>
       </c>
       <c r="C63" s="18">
         <v>17566.559999999998</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
+      <c r="V63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL63">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN63">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:44">
       <c r="B64" s="18">
         <v>1.8512676000000001</v>
       </c>
       <c r="C64" s="18">
         <v>18498.12</v>
       </c>
-    </row>
-    <row r="65" spans="2:3">
+      <c r="V64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL64">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN64">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:44">
       <c r="B65" s="18">
         <v>1.8591790000000001</v>
       </c>
       <c r="C65" s="18">
         <v>19296.600000000002</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
+      <c r="V65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:44">
       <c r="B66" s="18">
         <v>1.8512676000000001</v>
       </c>
       <c r="C66" s="18">
         <v>20228.16</v>
       </c>
-    </row>
-    <row r="67" spans="2:3">
+      <c r="V66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" si="13"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="14"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL66">
+        <f t="shared" si="15"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM66">
+        <f t="shared" si="16"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:44">
       <c r="B67" s="18">
         <v>1.9145588000000002</v>
       </c>
       <c r="C67" s="18">
         <v>18631.2</v>
       </c>
-    </row>
-    <row r="68" spans="2:3">
+      <c r="V67">
+        <f t="shared" ref="V67:V74" si="22">U67*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="22">
+        <f t="shared" ref="X67:X74" si="23">(U67/1.31)^(1/1.4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="22">
+        <f t="shared" ref="Y67:Y74" si="24">(U67+13.43)/14.261</f>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA74" si="25">Z67*2.2</f>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="22">
+        <f t="shared" ref="AB67:AB74" si="26">(U67/2.0173)^(1/2.46)</f>
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" ref="AC67:AC74" si="27">(V67/1157)^(1/1.78)</f>
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" ref="AD67:AD74" si="28">(V67/4217)^(1/2.25)</f>
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" ref="AE67:AE74" si="29">(V67/2786)^(1/3.22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <f t="shared" ref="AF67:AF74" si="30">(U67/1.89)^(1/1.92)</f>
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <f t="shared" ref="AG67:AG74" si="31">(U67/10.5)^(1/2.29)</f>
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <f t="shared" ref="AH67:AH74" si="32">(U67/10.5)^(1/2.57)</f>
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <f t="shared" ref="AI67:AI74" si="33">6.31*(W67)^2.2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <f t="shared" ref="AJ67:AJ74" si="34">(U67+0.058)/1.54</f>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK67">
+        <f t="shared" ref="AK67:AK74" si="35">(U67+0.0094)/0.573</f>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL67">
+        <f t="shared" ref="AL67:AL74" si="36">(U67+0.08)/2.1</f>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM67">
+        <f t="shared" ref="AM67:AM74" si="37">7.541*(W67)-0.637</f>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN67">
+        <f t="shared" ref="AN67:AN74" si="38">(U67/4.73)^(1/1.56)</f>
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <f t="shared" ref="AO67:AO74" si="39">(U67/15.52)^(1/1.93)</f>
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <f t="shared" ref="AP67:AP74" si="40">(U67/6.85)^(1/1.49)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <f t="shared" ref="AQ67:AQ74" si="41">(U67/8.92)^(1/1.83)</f>
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <f t="shared" ref="AR67:AR74" si="42">(U67/10.88)^(1/1.61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:44">
       <c r="B68" s="18">
         <v>1.9224702000000002</v>
       </c>
       <c r="C68" s="18">
         <v>20494.320000000003</v>
       </c>
-    </row>
-    <row r="69" spans="2:3">
+      <c r="V68">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="22">
+        <f t="shared" si="24"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="34"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="35"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" si="36"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="37"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN68">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:44">
       <c r="B69" s="18">
         <v>1.9382930000000003</v>
       </c>
       <c r="C69" s="18">
         <v>20228.16</v>
       </c>
-    </row>
-    <row r="70" spans="2:3">
+      <c r="V69">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="22">
+        <f t="shared" si="24"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" si="34"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" si="35"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" si="36"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" si="37"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN69">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:44">
       <c r="B70" s="18">
         <v>1.9778500000000001</v>
       </c>
       <c r="C70" s="18">
         <v>18897.36</v>
       </c>
-    </row>
-    <row r="71" spans="2:3">
+      <c r="V70">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="22">
+        <f t="shared" si="24"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <f t="shared" si="34"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK70">
+        <f t="shared" si="35"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL70">
+        <f t="shared" si="36"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM70">
+        <f t="shared" si="37"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN70">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:44">
       <c r="B71" s="18">
         <v>1.9936728000000001</v>
       </c>
       <c r="C71" s="18">
         <v>19163.52</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
+      <c r="V71">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="22">
+        <f t="shared" si="24"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" si="34"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK71">
+        <f t="shared" si="35"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL71">
+        <f t="shared" si="36"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" si="37"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN71">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:44">
       <c r="B72" s="18">
         <v>2.0253184000000002</v>
       </c>
       <c r="C72" s="18">
         <v>21825.120000000003</v>
       </c>
-    </row>
-    <row r="73" spans="2:3">
+      <c r="V72">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="22">
+        <f t="shared" si="24"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <f t="shared" si="34"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK72">
+        <f t="shared" si="35"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL72">
+        <f t="shared" si="36"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" si="37"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN72">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:44">
       <c r="B73" s="18">
         <v>1.9936728000000001</v>
       </c>
       <c r="C73" s="18">
         <v>24486.720000000001</v>
       </c>
-    </row>
-    <row r="74" spans="2:3">
+      <c r="V73">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="22">
+        <f t="shared" si="24"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <f t="shared" si="34"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK73">
+        <f t="shared" si="35"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL73">
+        <f t="shared" si="36"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" si="37"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN73">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:44">
       <c r="B74" s="18">
         <v>2.0253184000000002</v>
       </c>
       <c r="C74" s="18">
         <v>29809.920000000002</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="22">
+        <f t="shared" si="24"/>
+        <v>0.9417291915012973</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <f t="shared" si="34"/>
+        <v>3.7662337662337661E-2</v>
+      </c>
+      <c r="AK74">
+        <f t="shared" si="35"/>
+        <v>1.6404886561954626E-2</v>
+      </c>
+      <c r="AL74">
+        <f t="shared" si="36"/>
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="AM74">
+        <f t="shared" si="37"/>
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AN74">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/E vs ro.xlsx
+++ b/E vs ro.xlsx
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -352,7 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFill="1"/>
@@ -382,6 +389,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="98">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2630,106 +2644,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.60950000000000004</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60175000000000001</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57725000000000004</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52475000000000005</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53874999999999995</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53849999999999998</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67974999999999997</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60750000000000004</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63624999999999998</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54774999999999996</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53900000000000003</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51049999999999995</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52224999999999999</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61075000000000002</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56125000000000003</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62675000000000003</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56874999999999998</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.52249999999999996</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.54325000000000001</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64775000000000005</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63775000000000004</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.54849999999999999</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.58150000000000002</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59050000000000002</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.59899999999999998</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69974999999999998</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.61350000000000005</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61475000000000002</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5270,15 +5287,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9" style="18"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
     <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="25"/>
     <col min="24" max="26" width="11.375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5350,7 +5369,7 @@
       <c r="V1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="23" t="s">
         <v>11</v>
       </c>
       <c r="X1" s="22" t="s">
@@ -5417,7 +5436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15.75">
+    <row r="2" spans="1:44">
       <c r="B2" s="18">
         <v>0.27689900000000001</v>
       </c>
@@ -5464,14 +5483,15 @@
         <v>1.1495169999999999</v>
       </c>
       <c r="U2" s="21">
+        <f>0.1199144</f>
         <v>0.1199144</v>
       </c>
       <c r="V2" s="22">
         <f>U2*10^3</f>
         <v>119.9144</v>
       </c>
-      <c r="W2" s="21">
-        <v>0.60950000000000004</v>
+      <c r="W2" s="24">
+        <v>0.20499999999999999</v>
       </c>
       <c r="X2" s="22">
         <f>(U2/1.31)^(1/1.4)</f>
@@ -5519,7 +5539,7 @@
       </c>
       <c r="AI2">
         <f>6.31*(W2)^2.2</f>
-        <v>2.1231052348314212</v>
+        <v>0.19314694956108874</v>
       </c>
       <c r="AJ2">
         <f>(U2+0.058)/1.54</f>
@@ -5535,7 +5555,7 @@
       </c>
       <c r="AM2">
         <f>7.541*(W2)-0.637</f>
-        <v>3.9592395000000002</v>
+        <v>0.90890500000000007</v>
       </c>
       <c r="AN2">
         <f>(U2/4.73)^(1/1.56)</f>
@@ -5558,7 +5578,7 @@
         <v>6.0813712641416773E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.75">
+    <row r="3" spans="1:44">
       <c r="B3" s="18">
         <v>0.31645600000000002</v>
       </c>
@@ -5611,8 +5631,8 @@
         <f t="shared" ref="V3:V66" si="0">U3*10^3</f>
         <v>135.09399999999999</v>
       </c>
-      <c r="W3" s="21">
-        <v>0.60175000000000001</v>
+      <c r="W3" s="24">
+        <v>0.20399999999999999</v>
       </c>
       <c r="X3" s="22">
         <f t="shared" ref="X3:X66" si="1">(U3/1.31)^(1/1.4)</f>
@@ -5660,7 +5680,7 @@
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI66" si="12">6.31*(W3)^2.2</f>
-        <v>2.0641667445645018</v>
+        <v>0.1910802177759246</v>
       </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ66" si="13">(U3+0.058)/1.54</f>
@@ -5676,7 +5696,7 @@
       </c>
       <c r="AM3">
         <f t="shared" ref="AM3:AM66" si="16">7.541*(W3)-0.637</f>
-        <v>3.90079675</v>
+        <v>0.90136400000000005</v>
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3:AN66" si="17">(U3/4.73)^(1/1.56)</f>
@@ -5699,7 +5719,7 @@
         <v>6.5486762263548826E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.75">
+    <row r="4" spans="1:44">
       <c r="B4" s="18">
         <v>0.34810160000000001</v>
       </c>
@@ -5752,8 +5772,8 @@
         <f t="shared" si="0"/>
         <v>107.0868</v>
       </c>
-      <c r="W4" s="21">
-        <v>0.57725000000000004</v>
+      <c r="W4" s="24">
+        <v>0.20300000000000001</v>
       </c>
       <c r="X4" s="22">
         <f t="shared" si="1"/>
@@ -5801,7 +5821,7 @@
       </c>
       <c r="AI4">
         <f t="shared" si="12"/>
-        <v>1.8837793451918479</v>
+        <v>0.18902560756931941</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="13"/>
@@ -5817,7 +5837,7 @@
       </c>
       <c r="AM4">
         <f t="shared" si="16"/>
-        <v>3.7160422500000005</v>
+        <v>0.89382300000000026</v>
       </c>
       <c r="AN4">
         <f t="shared" si="17"/>
@@ -5840,7 +5860,7 @@
         <v>5.6686890786237322E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.75">
+    <row r="5" spans="1:44">
       <c r="B5" s="18">
         <v>0.49050680000000002</v>
       </c>
@@ -5893,8 +5913,8 @@
         <f t="shared" si="0"/>
         <v>115.9383</v>
       </c>
-      <c r="W5" s="21">
-        <v>0.52475000000000005</v>
+      <c r="W5" s="24">
+        <v>0.32300000000000001</v>
       </c>
       <c r="X5" s="22">
         <f t="shared" si="1"/>
@@ -5942,7 +5962,7 @@
       </c>
       <c r="AI5">
         <f t="shared" si="12"/>
-        <v>1.5273013766168826</v>
+        <v>0.52513976849488997</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="13"/>
@@ -5958,7 +5978,7 @@
       </c>
       <c r="AM5">
         <f t="shared" si="16"/>
-        <v>3.3201397500000005</v>
+        <v>1.798743</v>
       </c>
       <c r="AN5">
         <f t="shared" si="17"/>
@@ -5981,7 +6001,7 @@
         <v>5.9553269627347111E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.75">
+    <row r="6" spans="1:44">
       <c r="B6" s="18">
         <v>0.51424100000000006</v>
       </c>
@@ -6034,8 +6054,8 @@
         <f t="shared" si="0"/>
         <v>144.38499999999999</v>
       </c>
-      <c r="W6" s="21">
-        <v>0.53874999999999995</v>
+      <c r="W6" s="24">
+        <v>0.33900000000000002</v>
       </c>
       <c r="X6" s="22">
         <f t="shared" si="1"/>
@@ -6083,7 +6103,7 @@
       </c>
       <c r="AI6">
         <f t="shared" si="12"/>
-        <v>1.6183832772247879</v>
+        <v>0.58407510441598887</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="13"/>
@@ -6099,7 +6119,7 @@
       </c>
       <c r="AM6">
         <f t="shared" si="16"/>
-        <v>3.4257137499999994</v>
+        <v>1.9193990000000003</v>
       </c>
       <c r="AN6">
         <f t="shared" si="17"/>
@@ -6122,7 +6142,7 @@
         <v>6.824881953333467E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15.75">
+    <row r="7" spans="1:44">
       <c r="B7" s="18">
         <v>0.5379752000000001</v>
       </c>
@@ -6168,8 +6188,8 @@
         <f t="shared" si="0"/>
         <v>105.75230000000001</v>
       </c>
-      <c r="W7" s="21">
-        <v>0.53849999999999998</v>
+      <c r="W7" s="24">
+        <v>0.33800000000000002</v>
       </c>
       <c r="X7" s="22">
         <f t="shared" si="1"/>
@@ -6217,7 +6237,7 @@
       </c>
       <c r="AI7">
         <f t="shared" si="12"/>
-        <v>1.616731559390046</v>
+        <v>0.58029135396617149</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="13"/>
@@ -6233,7 +6253,7 @@
       </c>
       <c r="AM7">
         <f t="shared" si="16"/>
-        <v>3.4238285000000004</v>
+        <v>1.9118580000000005</v>
       </c>
       <c r="AN7">
         <f t="shared" si="17"/>
@@ -6256,7 +6276,7 @@
         <v>5.624707646315296E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.75">
+    <row r="8" spans="1:44">
       <c r="B8" s="18">
         <v>0.6170892</v>
       </c>
@@ -6290,8 +6310,8 @@
         <f t="shared" si="0"/>
         <v>70.031000000000006</v>
       </c>
-      <c r="W8" s="21">
-        <v>0.67974999999999997</v>
+      <c r="W8" s="24">
+        <v>0.11700000000000001</v>
       </c>
       <c r="X8" s="22">
         <f t="shared" si="1"/>
@@ -6339,7 +6359,7 @@
       </c>
       <c r="AI8">
         <f t="shared" si="12"/>
-        <v>2.6989673759921051</v>
+        <v>5.6239086153946967E-2</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="13"/>
@@ -6355,7 +6375,7 @@
       </c>
       <c r="AM8">
         <f t="shared" si="16"/>
-        <v>4.4889947499999998</v>
+        <v>0.2452970000000001</v>
       </c>
       <c r="AN8">
         <f t="shared" si="17"/>
@@ -6378,7 +6398,7 @@
         <v>4.3543180160444422E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.75">
+    <row r="9" spans="1:44">
       <c r="B9" s="18">
         <v>0.63291200000000003</v>
       </c>
@@ -6412,8 +6432,8 @@
         <f t="shared" si="0"/>
         <v>104.25</v>
       </c>
-      <c r="W9" s="21">
-        <v>0.60750000000000004</v>
+      <c r="W9" s="24">
+        <v>0.123</v>
       </c>
       <c r="X9" s="22">
         <f t="shared" si="1"/>
@@ -6461,7 +6481,7 @@
       </c>
       <c r="AI9">
         <f t="shared" si="12"/>
-        <v>2.1078086393567768</v>
+        <v>6.2779897805547824E-2</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="13"/>
@@ -6477,7 +6497,7 @@
       </c>
       <c r="AM9">
         <f t="shared" si="16"/>
-        <v>3.9441575000000006</v>
+        <v>0.290543</v>
       </c>
       <c r="AN9">
         <f t="shared" si="17"/>
@@ -6500,7 +6520,7 @@
         <v>5.5749435881501073E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75">
+    <row r="10" spans="1:44">
       <c r="B10" s="18">
         <v>0.68038040000000011</v>
       </c>
@@ -6534,8 +6554,8 @@
         <f t="shared" si="0"/>
         <v>74.967200000000005</v>
       </c>
-      <c r="W10" s="21">
-        <v>0.63624999999999998</v>
+      <c r="W10" s="24">
+        <v>0.112</v>
       </c>
       <c r="X10" s="22">
         <f t="shared" si="1"/>
@@ -6583,7 +6603,7 @@
       </c>
       <c r="AI10">
         <f t="shared" si="12"/>
-        <v>2.3335145276860665</v>
+        <v>5.1086836364063908E-2</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="13"/>
@@ -6599,7 +6619,7 @@
       </c>
       <c r="AM10">
         <f t="shared" si="16"/>
-        <v>4.1609612499999997</v>
+        <v>0.207592</v>
       </c>
       <c r="AN10">
         <f t="shared" si="17"/>
@@ -6622,7 +6642,7 @@
         <v>4.5424840710936477E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75">
+    <row r="11" spans="1:44">
       <c r="B11" s="18">
         <v>0.69620320000000002</v>
       </c>
@@ -6656,8 +6676,8 @@
         <f t="shared" si="0"/>
         <v>141.63999999999999</v>
       </c>
-      <c r="W11" s="21">
-        <v>0.56999999999999995</v>
+      <c r="W11" s="24">
+        <v>0.30199999999999999</v>
       </c>
       <c r="X11" s="22">
         <f t="shared" si="1"/>
@@ -6705,7 +6725,7 @@
       </c>
       <c r="AI11">
         <f t="shared" si="12"/>
-        <v>1.8321205319106104</v>
+        <v>0.45294412794170891</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="13"/>
@@ -6721,7 +6741,7 @@
       </c>
       <c r="AM11">
         <f t="shared" si="16"/>
-        <v>3.6613700000000002</v>
+        <v>1.6403820000000002</v>
       </c>
       <c r="AN11">
         <f t="shared" si="17"/>
@@ -6744,7 +6764,7 @@
         <v>6.7439975744572264E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75">
+    <row r="12" spans="1:44">
       <c r="B12" s="18">
         <v>0.70411460000000003</v>
       </c>
@@ -6778,8 +6798,8 @@
         <f t="shared" si="0"/>
         <v>151.7775</v>
       </c>
-      <c r="W12" s="21">
-        <v>0.54774999999999996</v>
+      <c r="W12" s="24">
+        <v>0.30099999999999999</v>
       </c>
       <c r="X12" s="22">
         <f t="shared" si="1"/>
@@ -6827,7 +6847,7 @@
       </c>
       <c r="AI12">
         <f t="shared" si="12"/>
-        <v>1.678458504637159</v>
+        <v>0.44965108899136874</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="13"/>
@@ -6843,7 +6863,7 @@
       </c>
       <c r="AM12">
         <f t="shared" si="16"/>
-        <v>3.4935827500000003</v>
+        <v>1.632841</v>
       </c>
       <c r="AN12">
         <f t="shared" si="17"/>
@@ -6866,7 +6886,7 @@
         <v>7.0398642635017203E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75">
+    <row r="13" spans="1:44">
       <c r="B13" s="18">
         <v>0.7436716000000001</v>
       </c>
@@ -6900,8 +6920,8 @@
         <f t="shared" si="0"/>
         <v>154.15600000000001</v>
       </c>
-      <c r="W13" s="21">
-        <v>0.53900000000000003</v>
+      <c r="W13" s="24">
+        <v>0.35499999999999998</v>
       </c>
       <c r="X13" s="22">
         <f t="shared" si="1"/>
@@ -6949,7 +6969,7 @@
       </c>
       <c r="AI13">
         <f t="shared" si="12"/>
-        <v>1.6200359150657415</v>
+        <v>0.64644523110416574</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="13"/>
@@ -6965,7 +6985,7 @@
       </c>
       <c r="AM13">
         <f t="shared" si="16"/>
-        <v>3.4275990000000003</v>
+        <v>2.0400550000000002</v>
       </c>
       <c r="AN13">
         <f t="shared" si="17"/>
@@ -6988,7 +7008,7 @@
         <v>7.1081849435667324E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15.75">
+    <row r="14" spans="1:44">
       <c r="B14" s="18">
         <v>0.75949440000000012</v>
       </c>
@@ -7018,8 +7038,8 @@
         <f t="shared" si="0"/>
         <v>146.73750000000001</v>
       </c>
-      <c r="W14" s="21">
-        <v>0.51049999999999995</v>
+      <c r="W14" s="24">
+        <v>0.35</v>
       </c>
       <c r="X14" s="22">
         <f t="shared" si="1"/>
@@ -7067,7 +7087,7 @@
       </c>
       <c r="AI14">
         <f t="shared" si="12"/>
-        <v>1.4375402100729362</v>
+        <v>0.62658364790840992</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="13"/>
@@ -7083,7 +7103,7 @@
       </c>
       <c r="AM14">
         <f t="shared" si="16"/>
-        <v>3.2126804999999998</v>
+        <v>2.0023499999999999</v>
       </c>
       <c r="AN14">
         <f t="shared" si="17"/>
@@ -7106,7 +7126,7 @@
         <v>6.8937383395693871E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15.75">
+    <row r="15" spans="1:44">
       <c r="B15" s="18">
         <v>0.79114000000000007</v>
       </c>
@@ -7136,8 +7156,8 @@
         <f t="shared" si="0"/>
         <v>144.06</v>
       </c>
-      <c r="W15" s="21">
-        <v>0.52224999999999999</v>
+      <c r="W15" s="24">
+        <v>0.35399999999999998</v>
       </c>
       <c r="X15" s="22">
         <f t="shared" si="1"/>
@@ -7185,7 +7205,7 @@
       </c>
       <c r="AI15">
         <f t="shared" si="12"/>
-        <v>1.5113391978256681</v>
+        <v>0.64244586131147996</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="13"/>
@@ -7201,7 +7221,7 @@
       </c>
       <c r="AM15">
         <f t="shared" si="16"/>
-        <v>3.3012872500000001</v>
+        <v>2.0325139999999999</v>
       </c>
       <c r="AN15">
         <f t="shared" si="17"/>
@@ -7224,7 +7244,7 @@
         <v>6.815336074997301E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15.75">
+    <row r="16" spans="1:44">
       <c r="B16" s="18">
         <v>0.82278560000000012</v>
       </c>
@@ -7254,8 +7274,8 @@
         <f t="shared" si="0"/>
         <v>119.59500000000001</v>
       </c>
-      <c r="W16" s="21">
-        <v>0.61075000000000002</v>
+      <c r="W16" s="24">
+        <v>0.16200000000000001</v>
       </c>
       <c r="X16" s="22">
         <f t="shared" si="1"/>
@@ -7303,7 +7323,7 @@
       </c>
       <c r="AI16">
         <f t="shared" si="12"/>
-        <v>2.1326962517281904</v>
+        <v>0.11507007369665512</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="13"/>
@@ -7319,7 +7339,7 @@
       </c>
       <c r="AM16">
         <f t="shared" si="16"/>
-        <v>3.96866575</v>
+        <v>0.58464200000000011</v>
       </c>
       <c r="AN16">
         <f t="shared" si="17"/>
@@ -7342,7 +7362,7 @@
         <v>6.0713052260840235E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:44" ht="15.75">
+    <row r="17" spans="2:44">
       <c r="B17" s="18">
         <v>0.85443120000000006</v>
       </c>
@@ -7372,8 +7392,8 @@
         <f t="shared" si="0"/>
         <v>82.852999999999994</v>
       </c>
-      <c r="W17" s="21">
-        <v>0.59199999999999997</v>
+      <c r="W17" s="24">
+        <v>0.16600000000000001</v>
       </c>
       <c r="X17" s="22">
         <f t="shared" si="1"/>
@@ -7421,7 +7441,7 @@
       </c>
       <c r="AI17">
         <f t="shared" si="12"/>
-        <v>1.9913019270909462</v>
+        <v>0.12141354869655999</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="13"/>
@@ -7437,7 +7457,7 @@
       </c>
       <c r="AM17">
         <f t="shared" si="16"/>
-        <v>3.8272720000000002</v>
+        <v>0.61480600000000019</v>
       </c>
       <c r="AN17">
         <f t="shared" si="17"/>
@@ -7460,7 +7480,7 @@
         <v>4.8336242170243376E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:44" ht="15.75">
+    <row r="18" spans="2:44">
       <c r="B18" s="18">
         <v>0.83860840000000003</v>
       </c>
@@ -7490,7 +7510,9 @@
         <f t="shared" si="0"/>
         <v>62.002299999999998</v>
       </c>
-      <c r="W18" s="21"/>
+      <c r="W18" s="24">
+        <v>0.16300000000000001</v>
+      </c>
       <c r="X18" s="22">
         <f t="shared" si="1"/>
         <v>0.11315374489050607</v>
@@ -7537,7 +7559,7 @@
       </c>
       <c r="AI18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.11663854379240919</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="13"/>
@@ -7553,7 +7575,7 @@
       </c>
       <c r="AM18">
         <f t="shared" si="16"/>
-        <v>-0.63700000000000001</v>
+        <v>0.59218300000000013</v>
       </c>
       <c r="AN18">
         <f t="shared" si="17"/>
@@ -7576,7 +7598,7 @@
         <v>4.0371404066690778E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:44" ht="15.75">
+    <row r="19" spans="2:44">
       <c r="B19" s="18">
         <v>0.90189960000000013</v>
       </c>
@@ -7606,8 +7628,8 @@
         <f t="shared" si="0"/>
         <v>104.699</v>
       </c>
-      <c r="W19" s="21">
-        <v>0.57999999999999996</v>
+      <c r="W19" s="24">
+        <v>0.26500000000000001</v>
       </c>
       <c r="X19" s="22">
         <f t="shared" si="1"/>
@@ -7655,7 +7677,7 @@
       </c>
       <c r="AI19">
         <f t="shared" si="12"/>
-        <v>1.9035791753326343</v>
+        <v>0.33975846188931447</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="13"/>
@@ -7671,7 +7693,7 @@
       </c>
       <c r="AM19">
         <f t="shared" si="16"/>
-        <v>3.73678</v>
+        <v>1.3613650000000002</v>
       </c>
       <c r="AN19">
         <f t="shared" si="17"/>
@@ -7694,7 +7716,7 @@
         <v>5.5898451258989131E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:44" ht="15.75">
+    <row r="20" spans="2:44">
       <c r="B20" s="18">
         <v>0.91772240000000005</v>
       </c>
@@ -7724,8 +7746,8 @@
         <f t="shared" si="0"/>
         <v>120.52700000000002</v>
       </c>
-      <c r="W20" s="21">
-        <v>0.56125000000000003</v>
+      <c r="W20" s="24">
+        <v>0.26800000000000002</v>
       </c>
       <c r="X20" s="22">
         <f t="shared" si="1"/>
@@ -7773,7 +7795,7 @@
       </c>
       <c r="AI20">
         <f t="shared" si="12"/>
-        <v>1.770815595222347</v>
+        <v>0.34827789114940061</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="13"/>
@@ -7789,7 +7811,7 @@
       </c>
       <c r="AM20">
         <f t="shared" si="16"/>
-        <v>3.5953862500000002</v>
+        <v>1.383988</v>
       </c>
       <c r="AN20">
         <f t="shared" si="17"/>
@@ -7812,7 +7834,7 @@
         <v>6.1006492551014223E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:44" ht="15.75">
+    <row r="21" spans="2:44">
       <c r="B21" s="18">
         <v>0.90981100000000004</v>
       </c>
@@ -7842,8 +7864,8 @@
         <f t="shared" si="0"/>
         <v>128.48330000000001</v>
       </c>
-      <c r="W21" s="21">
-        <v>0.62675000000000003</v>
+      <c r="W21" s="24">
+        <v>0.26600000000000001</v>
       </c>
       <c r="X21" s="22">
         <f t="shared" si="1"/>
@@ -7891,7 +7913,7 @@
       </c>
       <c r="AI21">
         <f t="shared" si="12"/>
-        <v>2.2575475840140267</v>
+        <v>0.34258548612842565</v>
       </c>
       <c r="AJ21">
         <f t="shared" si="13"/>
@@ -7907,7 +7929,7 @@
       </c>
       <c r="AM21">
         <f t="shared" si="16"/>
-        <v>4.0893217499999999</v>
+        <v>1.3689060000000004</v>
       </c>
       <c r="AN21">
         <f t="shared" si="17"/>
@@ -7930,7 +7952,7 @@
         <v>6.3477489693280237E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:44" ht="15.75">
+    <row r="22" spans="2:44">
       <c r="B22" s="18">
         <v>0.98101360000000004</v>
       </c>
@@ -7954,8 +7976,8 @@
         <f t="shared" si="0"/>
         <v>155.46250000000001</v>
       </c>
-      <c r="W22" s="21">
-        <v>0.56874999999999998</v>
+      <c r="W22" s="24">
+        <v>0.374</v>
       </c>
       <c r="X22" s="22">
         <f t="shared" si="1"/>
@@ -8003,7 +8025,7 @@
       </c>
       <c r="AI22">
         <f t="shared" si="12"/>
-        <v>1.8232929827020417</v>
+        <v>0.72501482004456264</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="13"/>
@@ -8019,7 +8041,7 @@
       </c>
       <c r="AM22">
         <f t="shared" si="16"/>
-        <v>3.6519437499999996</v>
+        <v>2.1833340000000003</v>
       </c>
       <c r="AN22">
         <f t="shared" si="17"/>
@@ -8042,7 +8064,7 @@
         <v>7.1455432078942741E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:44" ht="15.75">
+    <row r="23" spans="2:44">
       <c r="B23" s="18">
         <v>1.0126592000000001</v>
       </c>
@@ -8066,8 +8088,8 @@
         <f t="shared" si="0"/>
         <v>130.77000000000004</v>
       </c>
-      <c r="W23" s="21">
-        <v>0.52249999999999996</v>
+      <c r="W23" s="24">
+        <v>0.375</v>
       </c>
       <c r="X23" s="22">
         <f t="shared" si="1"/>
@@ -8115,7 +8137,7 @@
       </c>
       <c r="AI23">
         <f t="shared" si="12"/>
-        <v>1.5129312999092686</v>
+        <v>0.72928645623658772</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="13"/>
@@ -8131,7 +8153,7 @@
       </c>
       <c r="AM23">
         <f t="shared" si="16"/>
-        <v>3.3031725000000001</v>
+        <v>2.1908750000000001</v>
       </c>
       <c r="AN23">
         <f t="shared" si="17"/>
@@ -8154,7 +8176,7 @@
         <v>6.4176850881148648E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:44" ht="15.75">
+    <row r="24" spans="2:44">
       <c r="B24" s="18">
         <v>1.0284820000000001</v>
       </c>
@@ -8178,8 +8200,8 @@
         <f t="shared" si="0"/>
         <v>149.72749999999999</v>
       </c>
-      <c r="W24" s="21">
-        <v>0.54325000000000001</v>
+      <c r="W24" s="24">
+        <v>0.372</v>
       </c>
       <c r="X24" s="22">
         <f t="shared" si="1"/>
@@ -8227,7 +8249,7 @@
       </c>
       <c r="AI24">
         <f t="shared" si="12"/>
-        <v>1.6482716019107939</v>
+        <v>0.71651259181519</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="13"/>
@@ -8243,7 +8265,7 @@
       </c>
       <c r="AM24">
         <f t="shared" si="16"/>
-        <v>3.4596482500000003</v>
+        <v>2.1682520000000003</v>
       </c>
       <c r="AN24">
         <f t="shared" si="17"/>
@@ -8266,7 +8288,7 @@
         <v>6.9806533686087829E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:44" ht="15.75">
+    <row r="25" spans="2:44">
       <c r="B25" s="18">
         <v>1.0759504000000002</v>
       </c>
@@ -8290,8 +8312,8 @@
         <f t="shared" si="0"/>
         <v>65.813599999999994</v>
       </c>
-      <c r="W25" s="21">
-        <v>0.64775000000000005</v>
+      <c r="W25" s="24">
+        <v>0.155</v>
       </c>
       <c r="X25" s="22">
         <f t="shared" si="1"/>
@@ -8339,7 +8361,7 @@
       </c>
       <c r="AI25">
         <f t="shared" si="12"/>
-        <v>2.4273124692312038</v>
+        <v>0.10441408696875942</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="13"/>
@@ -8355,7 +8377,7 @@
       </c>
       <c r="AM25">
         <f t="shared" si="16"/>
-        <v>4.247682750000001</v>
+        <v>0.53185499999999997</v>
       </c>
       <c r="AN25">
         <f t="shared" si="17"/>
@@ -8378,7 +8400,7 @@
         <v>4.1895336641230074E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:44" ht="15.75">
+    <row r="26" spans="2:44">
       <c r="B26" s="18">
         <v>1.107596</v>
       </c>
@@ -8402,8 +8424,8 @@
         <f t="shared" si="0"/>
         <v>80.492000000000004</v>
       </c>
-      <c r="W26" s="21">
-        <v>0.63775000000000004</v>
+      <c r="W26" s="24">
+        <v>0.156</v>
       </c>
       <c r="X26" s="22">
         <f t="shared" si="1"/>
@@ -8451,7 +8473,7 @@
       </c>
       <c r="AI26">
         <f t="shared" si="12"/>
-        <v>2.3456347515656559</v>
+        <v>0.10590183262766005</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="13"/>
@@ -8467,7 +8489,7 @@
       </c>
       <c r="AM26">
         <f t="shared" si="16"/>
-        <v>4.1722727500000012</v>
+        <v>0.53939599999999999</v>
       </c>
       <c r="AN26">
         <f t="shared" si="17"/>
@@ -8490,7 +8512,7 @@
         <v>4.7476033140107683E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:44" ht="15.75">
+    <row r="27" spans="2:44">
       <c r="B27" s="18">
         <v>1.1234188000000001</v>
       </c>
@@ -8514,8 +8536,8 @@
         <f t="shared" si="0"/>
         <v>93.965999999999994</v>
       </c>
-      <c r="W27" s="21">
-        <v>0.63100000000000001</v>
+      <c r="W27" s="24">
+        <v>0.152</v>
       </c>
       <c r="X27" s="22">
         <f t="shared" si="1"/>
@@ -8563,7 +8585,7 @@
       </c>
       <c r="AI27">
         <f t="shared" si="12"/>
-        <v>2.2913632826845038</v>
+        <v>0.10001963209167032</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="13"/>
@@ -8579,7 +8601,7 @@
       </c>
       <c r="AM27">
         <f t="shared" si="16"/>
-        <v>4.1213709999999999</v>
+        <v>0.50923199999999991</v>
       </c>
       <c r="AN27">
         <f t="shared" si="17"/>
@@ -8602,7 +8624,7 @@
         <v>5.2266659994520667E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:44" ht="15.75">
+    <row r="28" spans="2:44">
       <c r="B28" s="18">
         <v>1.1392416000000001</v>
       </c>
@@ -8626,8 +8648,8 @@
         <f t="shared" si="0"/>
         <v>138.5033</v>
       </c>
-      <c r="W28" s="21">
-        <v>0.54849999999999999</v>
+      <c r="W28" s="24">
+        <v>0.33300000000000002</v>
       </c>
       <c r="X28" s="22">
         <f t="shared" si="1"/>
@@ -8675,7 +8697,7 @@
       </c>
       <c r="AI28">
         <f t="shared" si="12"/>
-        <v>1.6835187181780265</v>
+        <v>0.56157358689954229</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="13"/>
@@ -8691,7 +8713,7 @@
       </c>
       <c r="AM28">
         <f t="shared" si="16"/>
-        <v>3.4992385000000001</v>
+        <v>1.8741530000000002</v>
       </c>
       <c r="AN28">
         <f t="shared" si="17"/>
@@ -8714,7 +8736,7 @@
         <v>6.6508405762532835E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:44" ht="15.75">
+    <row r="29" spans="2:44">
       <c r="B29" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -8738,8 +8760,8 @@
         <f t="shared" si="0"/>
         <v>127.21670000000002</v>
       </c>
-      <c r="W29" s="21">
-        <v>0.58150000000000002</v>
+      <c r="W29" s="24">
+        <v>0.33500000000000002</v>
       </c>
       <c r="X29" s="22">
         <f t="shared" si="1"/>
@@ -8787,7 +8809,7 @@
       </c>
       <c r="AI29">
         <f t="shared" si="12"/>
-        <v>1.9144266936025442</v>
+        <v>0.5690205285607679</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="13"/>
@@ -8803,7 +8825,7 @@
       </c>
       <c r="AM29">
         <f t="shared" si="16"/>
-        <v>3.7480915000000006</v>
+        <v>1.8892350000000002</v>
       </c>
       <c r="AN29">
         <f t="shared" si="17"/>
@@ -8826,7 +8848,7 @@
         <v>6.3088085469016952E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:44" ht="15.75">
+    <row r="30" spans="2:44">
       <c r="B30" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -8850,8 +8872,8 @@
         <f t="shared" si="0"/>
         <v>157.29</v>
       </c>
-      <c r="W30" s="21">
-        <v>0.59050000000000002</v>
+      <c r="W30" s="24">
+        <v>0.33400000000000002</v>
       </c>
       <c r="X30" s="22">
         <f t="shared" si="1"/>
@@ -8899,7 +8921,7 @@
       </c>
       <c r="AI30">
         <f t="shared" si="12"/>
-        <v>1.9802186367171488</v>
+        <v>0.56529036886359729</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="13"/>
@@ -8915,7 +8937,7 @@
       </c>
       <c r="AM30">
         <f t="shared" si="16"/>
-        <v>3.8159605000000005</v>
+        <v>1.8816940000000004</v>
       </c>
       <c r="AN30">
         <f t="shared" si="17"/>
@@ -8938,7 +8960,7 @@
         <v>7.1976000827902911E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:44" ht="15.75">
+    <row r="31" spans="2:44">
       <c r="B31" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -8962,8 +8984,8 @@
         <f t="shared" si="0"/>
         <v>133.61670000000001</v>
       </c>
-      <c r="W31" s="21">
-        <v>0.53</v>
+      <c r="W31" s="24">
+        <v>0.30299999999999999</v>
       </c>
       <c r="X31" s="22">
         <f t="shared" si="1"/>
@@ -9011,7 +9033,7 @@
       </c>
       <c r="AI31">
         <f t="shared" si="12"/>
-        <v>1.5611199450743134</v>
+        <v>0.45625027785563549</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="13"/>
@@ -9027,7 +9049,7 @@
       </c>
       <c r="AM31">
         <f t="shared" si="16"/>
-        <v>3.3597300000000003</v>
+        <v>1.647923</v>
       </c>
       <c r="AN31">
         <f t="shared" si="17"/>
@@ -9050,7 +9072,7 @@
         <v>6.5041040769774988E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:44" ht="15.75">
+    <row r="32" spans="2:44">
       <c r="B32" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -9071,8 +9093,8 @@
         <f t="shared" si="0"/>
         <v>134.655</v>
       </c>
-      <c r="W32" s="21">
-        <v>0.5625</v>
+      <c r="W32" s="24">
+        <v>0.307</v>
       </c>
       <c r="X32" s="22">
         <f t="shared" si="1"/>
@@ -9120,7 +9142,7 @@
       </c>
       <c r="AI32">
         <f t="shared" si="12"/>
-        <v>1.7795037935371172</v>
+        <v>0.46960616023090057</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="13"/>
@@ -9136,7 +9158,7 @@
       </c>
       <c r="AM32">
         <f t="shared" si="16"/>
-        <v>3.6048125</v>
+        <v>1.6780870000000001</v>
       </c>
       <c r="AN32">
         <f t="shared" si="17"/>
@@ -9159,7 +9181,7 @@
         <v>6.5354503708422468E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:44" ht="15.75">
+    <row r="33" spans="2:44">
       <c r="B33" s="18">
         <v>1.2183556000000002</v>
       </c>
@@ -9180,8 +9202,8 @@
         <f t="shared" si="0"/>
         <v>128.352</v>
       </c>
-      <c r="W33" s="21">
-        <v>0.59899999999999998</v>
+      <c r="W33" s="24">
+        <v>0.30599999999999999</v>
       </c>
       <c r="X33" s="22">
         <f t="shared" si="1"/>
@@ -9229,7 +9251,7 @@
       </c>
       <c r="AI33">
         <f t="shared" si="12"/>
-        <v>2.0434704810877866</v>
+        <v>0.46624747997767263</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="13"/>
@@ -9245,7 +9267,7 @@
       </c>
       <c r="AM33">
         <f t="shared" si="16"/>
-        <v>3.8800589999999997</v>
+        <v>1.6705459999999999</v>
       </c>
       <c r="AN33">
         <f t="shared" si="17"/>
@@ -9268,7 +9290,7 @@
         <v>6.3437190530912124E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:44" ht="15.75">
+    <row r="34" spans="2:44">
       <c r="B34" s="18">
         <v>1.2658240000000001</v>
       </c>
@@ -9289,8 +9311,8 @@
         <f t="shared" si="0"/>
         <v>110.773</v>
       </c>
-      <c r="W34" s="21">
-        <v>0.69974999999999998</v>
+      <c r="W34" s="24">
+        <v>0.157</v>
       </c>
       <c r="X34" s="22">
         <f t="shared" si="1"/>
@@ -9338,7 +9360,7 @@
       </c>
       <c r="AI34">
         <f t="shared" si="12"/>
-        <v>2.8767608181573179</v>
+        <v>0.10740106664475262</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="13"/>
@@ -9354,7 +9376,7 @@
       </c>
       <c r="AM34">
         <f t="shared" si="16"/>
-        <v>4.6398147499999993</v>
+        <v>0.54693700000000001</v>
       </c>
       <c r="AN34">
         <f t="shared" si="17"/>
@@ -9377,7 +9399,7 @@
         <v>5.7891101773406464E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:44" ht="15.75">
+    <row r="35" spans="2:44">
       <c r="B35" s="18">
         <v>1.2737354000000001</v>
       </c>
@@ -9398,8 +9420,8 @@
         <f t="shared" si="0"/>
         <v>76.9756</v>
       </c>
-      <c r="W35" s="21">
-        <v>0.61350000000000005</v>
+      <c r="W35" s="24">
+        <v>0.16500000000000001</v>
       </c>
       <c r="X35" s="22">
         <f t="shared" si="1"/>
@@ -9447,7 +9469,7 @@
       </c>
       <c r="AI35">
         <f t="shared" si="12"/>
-        <v>2.1538795197895624</v>
+        <v>0.11981026714113728</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="13"/>
@@ -9463,7 +9485,7 @@
       </c>
       <c r="AM35">
         <f t="shared" si="16"/>
-        <v>3.9894035000000003</v>
+        <v>0.60726500000000017</v>
       </c>
       <c r="AN35">
         <f t="shared" si="17"/>
@@ -9486,7 +9508,7 @@
         <v>4.6176919895248983E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:44" ht="15.75">
+    <row r="36" spans="2:44">
       <c r="B36" s="18">
         <v>1.3053810000000001</v>
       </c>
@@ -9507,8 +9529,8 @@
         <f t="shared" si="0"/>
         <v>94.342600000000019</v>
       </c>
-      <c r="W36" s="21">
-        <v>0.61475000000000002</v>
+      <c r="W36" s="24">
+        <v>0.16200000000000001</v>
       </c>
       <c r="X36" s="22">
         <f t="shared" si="1"/>
@@ -9556,7 +9578,7 @@
       </c>
       <c r="AI36">
         <f t="shared" si="12"/>
-        <v>2.1635460408981118</v>
+        <v>0.11507007369665512</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="13"/>
@@ -9572,7 +9594,7 @@
       </c>
       <c r="AM36">
         <f t="shared" si="16"/>
-        <v>3.9988297500000001</v>
+        <v>0.58464200000000011</v>
       </c>
       <c r="AN36">
         <f t="shared" si="17"/>

--- a/E vs ro.xlsx
+++ b/E vs ro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3090" windowWidth="22005" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="570" yWindow="3690" windowWidth="22005" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1296,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-558388464"/>
-        <c:axId val="-558393360"/>
+        <c:axId val="199349952"/>
+        <c:axId val="199345600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-558388464"/>
+        <c:axId val="199349952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,12 +1310,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-558393360"/>
+        <c:crossAx val="199345600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-558393360"/>
+        <c:axId val="199345600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-558388464"/>
+        <c:crossAx val="199349952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3134,11 +3134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-558391728"/>
-        <c:axId val="-558397168"/>
+        <c:axId val="183997632"/>
+        <c:axId val="183996000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-558391728"/>
+        <c:axId val="183997632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,12 +3256,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-558397168"/>
+        <c:crossAx val="183996000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-558397168"/>
+        <c:axId val="183996000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,7 +3374,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-558391728"/>
+        <c:crossAx val="183997632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7202,11 +7202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-558390096"/>
-        <c:axId val="-558389552"/>
+        <c:axId val="290555312"/>
+        <c:axId val="290553680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-558390096"/>
+        <c:axId val="290555312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -7320,12 +7320,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-558389552"/>
+        <c:crossAx val="290553680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-558389552"/>
+        <c:axId val="290553680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -7444,7 +7444,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-558390096"/>
+        <c:crossAx val="290555312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8113,6 +8113,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Arkusz2!$W$2:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Arkusz2!$AM$2:$AM$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -8221,120 +8335,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.58464200000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz2!$U$2:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.1199144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13509399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1070868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11593829999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14438499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10575230000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10425</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.104699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8349,11 +8349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-721347056"/>
-        <c:axId val="-721332368"/>
+        <c:axId val="290553136"/>
+        <c:axId val="290551504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-721347056"/>
+        <c:axId val="290553136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8466,14 +8466,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-721332368"/>
+        <c:crossAx val="290551504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-721332368"/>
+        <c:axId val="290551504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8584,7 +8585,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-721347056"/>
+        <c:crossAx val="290553136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11701,8 +11702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/E vs ro.xlsx
+++ b/E vs ro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3690" windowWidth="22005" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="570" yWindow="4290" windowWidth="22005" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1296,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199349952"/>
-        <c:axId val="199345600"/>
+        <c:axId val="1333847040"/>
+        <c:axId val="1333839968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199349952"/>
+        <c:axId val="1333847040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,12 +1310,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199345600"/>
+        <c:crossAx val="1333839968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199345600"/>
+        <c:axId val="1333839968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199349952"/>
+        <c:crossAx val="1333847040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1398,6 +1398,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Własne wyniki</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -1653,6 +1656,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Anendschein</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1734,6 +1740,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Carter</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1821,6 +1830,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Ciarelli</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1908,6 +1920,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Knaus</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1995,6 +2010,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>Lotz</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2118,6 +2136,9 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:v>Zioupos</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2608,524 +2629,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz2!$W$2:$W$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.123</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.30199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.30099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.26500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.26800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.26600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.374</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.33500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.30299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz2!$U$2:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.1199144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13509399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1070868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11593829999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14438499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10575230000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10425</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.104699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz2!$AB$2:$AB$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.31744391915440517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33320352120694735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30317492121376177</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31312230102420074</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3423354430457789</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30163338208509727</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25510289187066032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29988413173279133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2622648953595636</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3396746861111587</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.34935505782811305</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35157029426539133</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34459195418676136</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.34202199296748248</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.31709993447623375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27314764421135218</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.24278308149499578</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3004084977106995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.31810215338133829</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32647663944397426</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.35277849007681211</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.32882627927359448</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.34742918262511191</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24874253988753697</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2699563760381421</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.28748685269002139</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33659650848992528</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.32516448457042801</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.35445841754508933</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.33171750908507203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.33276294377164528</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32634097476213519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.30737465946913101</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.26509867595476544</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.28795467048132606</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz2!$U$2:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.1199144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13509399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1070868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11593829999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14438499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10575230000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10425</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.104699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3134,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183997632"/>
-        <c:axId val="183996000"/>
+        <c:axId val="1333837792"/>
+        <c:axId val="1333849760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183997632"/>
+        <c:axId val="1333837792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,12 +2759,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183996000"/>
+        <c:crossAx val="1333849760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183996000"/>
+        <c:axId val="1333849760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,7 +2877,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183997632"/>
+        <c:crossAx val="1333837792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3386,6 +2889,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3438,6 +2973,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Gęstość kości według różnych publikacji</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3477,6 +3037,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Lotz [90]</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -3846,6 +3409,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Zioupos</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4101,6 +3667,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Linde [92]</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4356,6 +3925,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Dalstra</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4380,261 +3952,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$U$2:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.1199144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13509399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1070868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11593829999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14438499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10575230000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10425</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.104699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz2!$AB$2:$AB$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.31744391915440517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33320352120694735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30317492121376177</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31312230102420074</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3423354430457789</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30163338208509727</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25510289187066032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29988413173279133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2622648953595636</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3396746861111587</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.34935505782811305</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35157029426539133</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34459195418676136</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.34202199296748248</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.31709993447623375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27314764421135218</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.24278308149499578</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3004084977106995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.31810215338133829</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32647663944397426</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.35277849007681211</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.32882627927359448</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.34742918262511191</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24874253988753697</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2699563760381421</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.28748685269002139</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33659650848992528</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.32516448457042801</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.35445841754508933</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.33171750908507203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.33276294377164528</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32634097476213519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.30737465946913101</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.26509867595476544</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.28795467048132606</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
               <c:f>Arkusz2!$AB$2:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4865,7 +4182,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Wirtz</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5120,7 +4440,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Giesen (axial)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5379,7 +4702,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Giesen (transversial)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5638,7 +4964,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Keller (spine)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5897,7 +5226,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Keller (femur)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -6156,7 +5488,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Keller (pooled)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -6415,7 +5750,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Keaveny</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -6674,7 +6012,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Li and Aspden</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -6935,7 +6276,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
-          <c:order val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>Kooperdahl</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -7202,11 +6546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290555312"/>
-        <c:axId val="290553680"/>
+        <c:axId val="1333838336"/>
+        <c:axId val="1333840512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="290555312"/>
+        <c:axId val="1333838336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -7320,12 +6664,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290553680"/>
+        <c:crossAx val="1333840512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290553680"/>
+        <c:axId val="1333840512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -7444,7 +6788,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290555312"/>
+        <c:crossAx val="1333838336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8349,11 +7693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290553136"/>
-        <c:axId val="290551504"/>
+        <c:axId val="1333841600"/>
+        <c:axId val="1333843776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="290553136"/>
+        <c:axId val="1333841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8466,12 +7810,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290551504"/>
+        <c:crossAx val="1333843776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290551504"/>
+        <c:axId val="1333843776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -8585,7 +7929,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290553136"/>
+        <c:crossAx val="1333841600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10403,16 +9747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>459126</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19692</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9632</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>43879</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119437</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193710</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10433,16 +9777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>667820</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>8989</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14984</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>59933</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>108734</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338192</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1711</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11702,7 +11046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>

--- a/E vs ro.xlsx
+++ b/E vs ro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="4290" windowWidth="22005" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="570" yWindow="4890" windowWidth="22005" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1296,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1333847040"/>
-        <c:axId val="1333839968"/>
+        <c:axId val="359712144"/>
+        <c:axId val="359715952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1333847040"/>
+        <c:axId val="359712144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,12 +1310,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1333839968"/>
+        <c:crossAx val="359715952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1333839968"/>
+        <c:axId val="359715952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1333847040"/>
+        <c:crossAx val="359712144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1333837792"/>
-        <c:axId val="1333849760"/>
+        <c:axId val="359714320"/>
+        <c:axId val="359717584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1333837792"/>
+        <c:axId val="359714320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,12 +2759,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333849760"/>
+        <c:crossAx val="359717584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1333849760"/>
+        <c:axId val="359717584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2877,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333837792"/>
+        <c:crossAx val="359714320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6546,11 +6546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1333838336"/>
-        <c:axId val="1333840512"/>
+        <c:axId val="359718128"/>
+        <c:axId val="359720304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1333838336"/>
+        <c:axId val="359718128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -6664,12 +6664,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333840512"/>
+        <c:crossAx val="359720304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1333840512"/>
+        <c:axId val="359720304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -6788,7 +6788,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333838336"/>
+        <c:crossAx val="359718128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6917,6 +6917,512 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$W$2:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$AI$2:$AI$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>2.512056246192566E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1542379510645711E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8164115691428435E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3034849426520855E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6648962853269999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2940829345876013E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8165403423880042E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4368417717503962E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1576419273350961E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9813408436700178E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9101331203369764E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9460437527620598E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0909550819257441E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.346627612347407E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7147164520722709E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11196784538390965</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12794313447412231</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14508712350397979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16341325523543421</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18293438711225032</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20366284568152518</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22561047352590169</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.248788670040474</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27320842710152682</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29888036045876915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32581473751863882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35402150205976551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38351029632305178</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.41429048084114906</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44637115231032187</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.4797611597581255</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51446911922023775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.55050342710711875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58787227241435513</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62658364790840992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$W$2:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$AM$2:$AM$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>-0.56159000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.48618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41076999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.33535999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25994999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18453999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10912999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3719999999999972E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1690000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11710000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19251000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26792000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41874000000000011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49415000000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56956000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64497000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72038000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79579</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8712000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94660999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0220200000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0974300000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1728400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2482500000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3236600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.39907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4744800000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.54989</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6253000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7007099999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7761200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8515300000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9269400000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0023499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="368897360"/>
+        <c:axId val="325662336"/>
+      </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7175,516 +7681,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz2!$AI$2:$AI$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.19314694956108874</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1910802177759246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18902560756931941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52513976849488997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58407510441598887</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58029135396617149</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.6239086153946967E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2779897805547824E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1086836364063908E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.45294412794170891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.44965108899136874</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.64644523110416574</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.62658364790840992</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.64244586131147996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11507007369665512</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.12141354869655999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.11663854379240919</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.33975846188931447</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.34827789114940061</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.34258548612842565</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.72501482004456264</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.72928645623658772</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.71651259181519</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.10441408696875942</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.10590183262766005</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.10001963209167032</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.56157358689954229</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5690205285607679</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.56529036886359729</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.45625027785563549</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.46960616023090057</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.46624747997767263</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.10740106664475262</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.11981026714113728</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.11507007369665512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz2!$U$2:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.1199144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13509399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1070868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11593829999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14438499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10575230000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10425</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.104699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz2!$W$2:$W$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.123</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.30199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.30099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.26500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.26800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.26600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.374</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.33500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.30299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz2!$AM$2:$AM$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.90890500000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90136400000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89382300000000026</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.798743</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9193990000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9118580000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2452970000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.290543</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.207592</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6403820000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.632841</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0400550000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0023499999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0325139999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58464200000000011</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.61480600000000019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.59218300000000013</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3613650000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.383988</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3689060000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1833340000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1908750000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1682520000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.53185499999999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.53939599999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.50923199999999991</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.8741530000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8892350000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8816940000000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.647923</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.6780870000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.6705459999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54693700000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.60726500000000017</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.58464200000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7693,11 +7689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1333841600"/>
-        <c:axId val="1333843776"/>
+        <c:axId val="368897360"/>
+        <c:axId val="325662336"/>
       </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1333841600"/>
+      <c:catAx>
+        <c:axId val="368897360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7810,15 +7806,20 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333843776"/>
+        <c:crossAx val="325662336"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1333843776"/>
+        <c:axId val="325662336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
+          <c:max val="0.18000000000000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7929,9 +7930,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1333841600"/>
+        <c:crossAx val="368897360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9747,16 +9748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9632</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>116012</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587553</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>193710</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12415</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225817</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44521</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9780,13 +9781,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>14984</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>105309</xdr:rowOff>
+      <xdr:rowOff>105308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>338192</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1711</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>96321</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11044,10 +11045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR74"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11061,7 +11062,7 @@
     <col min="28" max="28" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="57">
+    <row r="1" spans="1:45" ht="57">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45">
       <c r="B2" s="18">
         <v>0.27689900000000001</v>
       </c>
@@ -11298,8 +11299,8 @@
         <v>0.17548267931041106</v>
       </c>
       <c r="AI2">
-        <f>6.31*(W2)^2.2</f>
-        <v>0.19314694956108874</v>
+        <f>6.31*(AS2)^2.2</f>
+        <v>2.512056246192566E-4</v>
       </c>
       <c r="AJ2">
         <f>(U2+0.058)/1.54</f>
@@ -11314,8 +11315,8 @@
         <v>9.5197333333333328E-2</v>
       </c>
       <c r="AM2">
-        <f>7.541*(W2)-0.637</f>
-        <v>0.90890500000000007</v>
+        <f>7.541*(AS2)-0.637</f>
+        <v>-0.56159000000000003</v>
       </c>
       <c r="AN2">
         <f>(U2/4.73)^(1/1.56)</f>
@@ -11337,8 +11338,11 @@
         <f>(U2/10.88)^(1/1.61)</f>
         <v>6.0813712641416773E-2</v>
       </c>
+      <c r="AS2">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:45">
       <c r="B3" s="18">
         <v>0.31645600000000002</v>
       </c>
@@ -11440,8 +11444,8 @@
         <v>0.18381297829532903</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI66" si="13">6.31*(W3)^2.2</f>
-        <v>0.1910802177759246</v>
+        <f t="shared" ref="AI3:AI66" si="13">6.31*(AS3)^2.2</f>
+        <v>1.1542379510645711E-3</v>
       </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ66" si="14">(U3+0.058)/1.54</f>
@@ -11456,8 +11460,8 @@
         <v>0.10242571428571429</v>
       </c>
       <c r="AM3">
-        <f t="shared" ref="AM3:AM66" si="17">7.541*(W3)-0.637</f>
-        <v>0.90136400000000005</v>
+        <f t="shared" ref="AM3:AM66" si="17">7.541*(AS3)-0.637</f>
+        <v>-0.48618</v>
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3:AN66" si="18">(U3/4.73)^(1/1.56)</f>
@@ -11479,8 +11483,11 @@
         <f t="shared" ref="AR3:AR66" si="22">(U3/10.88)^(1/1.61)</f>
         <v>6.5486762263548826E-2</v>
       </c>
+      <c r="AS3">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="B4" s="18">
         <v>0.34810160000000001</v>
       </c>
@@ -11583,7 +11590,7 @@
       </c>
       <c r="AI4">
         <f t="shared" si="13"/>
-        <v>0.18902560756931941</v>
+        <v>2.8164115691428435E-3</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="14"/>
@@ -11599,7 +11606,7 @@
       </c>
       <c r="AM4">
         <f t="shared" si="17"/>
-        <v>0.89382300000000026</v>
+        <v>-0.41076999999999997</v>
       </c>
       <c r="AN4">
         <f t="shared" si="18"/>
@@ -11621,8 +11628,11 @@
         <f t="shared" si="22"/>
         <v>5.6686890786237322E-2</v>
       </c>
+      <c r="AS4">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:45">
       <c r="B5" s="18">
         <v>0.49050680000000002</v>
       </c>
@@ -11725,7 +11735,7 @@
       </c>
       <c r="AI5">
         <f t="shared" si="13"/>
-        <v>0.52513976849488997</v>
+        <v>5.3034849426520855E-3</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="14"/>
@@ -11741,7 +11751,7 @@
       </c>
       <c r="AM5">
         <f t="shared" si="17"/>
-        <v>1.798743</v>
+        <v>-0.33535999999999999</v>
       </c>
       <c r="AN5">
         <f t="shared" si="18"/>
@@ -11763,8 +11773,11 @@
         <f t="shared" si="22"/>
         <v>5.9553269627347111E-2</v>
       </c>
+      <c r="AS5">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:45">
       <c r="B6" s="18">
         <v>0.51424100000000006</v>
       </c>
@@ -11867,7 +11880,7 @@
       </c>
       <c r="AI6">
         <f t="shared" si="13"/>
-        <v>0.58407510441598887</v>
+        <v>8.6648962853269999E-3</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="14"/>
@@ -11883,7 +11896,7 @@
       </c>
       <c r="AM6">
         <f t="shared" si="17"/>
-        <v>1.9193990000000003</v>
+        <v>-0.25994999999999996</v>
       </c>
       <c r="AN6">
         <f t="shared" si="18"/>
@@ -11905,8 +11918,11 @@
         <f t="shared" si="22"/>
         <v>6.824881953333467E-2</v>
       </c>
+      <c r="AS6">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:45">
       <c r="B7" s="18">
         <v>0.5379752000000001</v>
       </c>
@@ -12002,7 +12018,7 @@
       </c>
       <c r="AI7">
         <f t="shared" si="13"/>
-        <v>0.58029135396617149</v>
+        <v>1.2940829345876013E-2</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="14"/>
@@ -12018,7 +12034,7 @@
       </c>
       <c r="AM7">
         <f t="shared" si="17"/>
-        <v>1.9118580000000005</v>
+        <v>-0.18453999999999998</v>
       </c>
       <c r="AN7">
         <f t="shared" si="18"/>
@@ -12040,8 +12056,11 @@
         <f t="shared" si="22"/>
         <v>5.624707646315296E-2</v>
       </c>
+      <c r="AS7">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:45">
       <c r="B8" s="18">
         <v>0.6170892</v>
       </c>
@@ -12125,7 +12144,7 @@
       </c>
       <c r="AI8">
         <f t="shared" si="13"/>
-        <v>5.6239086153946967E-2</v>
+        <v>1.8165403423880042E-2</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="14"/>
@@ -12141,7 +12160,7 @@
       </c>
       <c r="AM8">
         <f t="shared" si="17"/>
-        <v>0.2452970000000001</v>
+        <v>-0.10912999999999995</v>
       </c>
       <c r="AN8">
         <f t="shared" si="18"/>
@@ -12163,8 +12182,11 @@
         <f t="shared" si="22"/>
         <v>4.3543180160444422E-2</v>
       </c>
+      <c r="AS8">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:45">
       <c r="B9" s="18">
         <v>0.63291200000000003</v>
       </c>
@@ -12248,7 +12270,7 @@
       </c>
       <c r="AI9">
         <f t="shared" si="13"/>
-        <v>6.2779897805547824E-2</v>
+        <v>2.4368417717503962E-2</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="14"/>
@@ -12264,7 +12286,7 @@
       </c>
       <c r="AM9">
         <f t="shared" si="17"/>
-        <v>0.290543</v>
+        <v>-3.3719999999999972E-2</v>
       </c>
       <c r="AN9">
         <f t="shared" si="18"/>
@@ -12286,8 +12308,11 @@
         <f t="shared" si="22"/>
         <v>5.5749435881501073E-2</v>
       </c>
+      <c r="AS9">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:45">
       <c r="B10" s="18">
         <v>0.68038040000000011</v>
       </c>
@@ -12371,7 +12396,7 @@
       </c>
       <c r="AI10">
         <f t="shared" si="13"/>
-        <v>5.1086836364063908E-2</v>
+        <v>3.1576419273350961E-2</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="14"/>
@@ -12387,7 +12412,7 @@
       </c>
       <c r="AM10">
         <f t="shared" si="17"/>
-        <v>0.207592</v>
+        <v>4.1690000000000005E-2</v>
       </c>
       <c r="AN10">
         <f t="shared" si="18"/>
@@ -12409,8 +12434,11 @@
         <f t="shared" si="22"/>
         <v>4.5424840710936477E-2</v>
       </c>
+      <c r="AS10">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:45">
       <c r="B11" s="18">
         <v>0.69620320000000002</v>
       </c>
@@ -12494,7 +12522,7 @@
       </c>
       <c r="AI11">
         <f t="shared" si="13"/>
-        <v>0.45294412794170891</v>
+        <v>3.9813408436700178E-2</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="14"/>
@@ -12510,7 +12538,7 @@
       </c>
       <c r="AM11">
         <f t="shared" si="17"/>
-        <v>1.6403820000000002</v>
+        <v>0.11710000000000009</v>
       </c>
       <c r="AN11">
         <f t="shared" si="18"/>
@@ -12532,8 +12560,11 @@
         <f t="shared" si="22"/>
         <v>6.7439975744572264E-2</v>
       </c>
+      <c r="AS11">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:45">
       <c r="B12" s="18">
         <v>0.70411460000000003</v>
       </c>
@@ -12617,7 +12648,7 @@
       </c>
       <c r="AI12">
         <f t="shared" si="13"/>
-        <v>0.44965108899136874</v>
+        <v>4.9101331203369764E-2</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="14"/>
@@ -12633,7 +12664,7 @@
       </c>
       <c r="AM12">
         <f t="shared" si="17"/>
-        <v>1.632841</v>
+        <v>0.19251000000000007</v>
       </c>
       <c r="AN12">
         <f t="shared" si="18"/>
@@ -12655,8 +12686,11 @@
         <f t="shared" si="22"/>
         <v>7.0398642635017203E-2</v>
       </c>
+      <c r="AS12">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:45">
       <c r="B13" s="18">
         <v>0.7436716000000001</v>
       </c>
@@ -12740,7 +12774,7 @@
       </c>
       <c r="AI13">
         <f t="shared" si="13"/>
-        <v>0.64644523110416574</v>
+        <v>5.9460437527620598E-2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="14"/>
@@ -12756,7 +12790,7 @@
       </c>
       <c r="AM13">
         <f t="shared" si="17"/>
-        <v>2.0400550000000002</v>
+        <v>0.26792000000000005</v>
       </c>
       <c r="AN13">
         <f t="shared" si="18"/>
@@ -12778,8 +12812,11 @@
         <f t="shared" si="22"/>
         <v>7.1081849435667324E-2</v>
       </c>
+      <c r="AS13">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:45">
       <c r="B14" s="18">
         <v>0.75949440000000012</v>
       </c>
@@ -12859,7 +12896,7 @@
       </c>
       <c r="AI14">
         <f t="shared" si="13"/>
-        <v>0.62658364790840992</v>
+        <v>7.0909550819257441E-2</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="14"/>
@@ -12875,7 +12912,7 @@
       </c>
       <c r="AM14">
         <f t="shared" si="17"/>
-        <v>2.0023499999999999</v>
+        <v>0.34333000000000002</v>
       </c>
       <c r="AN14">
         <f t="shared" si="18"/>
@@ -12897,8 +12934,11 @@
         <f t="shared" si="22"/>
         <v>6.8937383395693871E-2</v>
       </c>
+      <c r="AS14">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:45">
       <c r="B15" s="18">
         <v>0.79114000000000007</v>
       </c>
@@ -12978,7 +13018,7 @@
       </c>
       <c r="AI15">
         <f t="shared" si="13"/>
-        <v>0.64244586131147996</v>
+        <v>8.346627612347407E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="14"/>
@@ -12994,7 +13034,7 @@
       </c>
       <c r="AM15">
         <f t="shared" si="17"/>
-        <v>2.0325139999999999</v>
+        <v>0.41874000000000011</v>
       </c>
       <c r="AN15">
         <f t="shared" si="18"/>
@@ -13016,8 +13056,11 @@
         <f t="shared" si="22"/>
         <v>6.815336074997301E-2</v>
       </c>
+      <c r="AS15">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:45">
       <c r="B16" s="18">
         <v>0.82278560000000012</v>
       </c>
@@ -13097,7 +13140,7 @@
       </c>
       <c r="AI16">
         <f t="shared" si="13"/>
-        <v>0.11507007369665512</v>
+        <v>9.7147164520722709E-2</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="14"/>
@@ -13113,7 +13156,7 @@
       </c>
       <c r="AM16">
         <f t="shared" si="17"/>
-        <v>0.58464200000000011</v>
+        <v>0.49415000000000009</v>
       </c>
       <c r="AN16">
         <f t="shared" si="18"/>
@@ -13135,8 +13178,11 @@
         <f t="shared" si="22"/>
         <v>6.0713052260840235E-2</v>
       </c>
+      <c r="AS16">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="17" spans="2:44">
+    <row r="17" spans="2:45">
       <c r="B17" s="18">
         <v>0.85443120000000006</v>
       </c>
@@ -13216,7 +13262,7 @@
       </c>
       <c r="AI17">
         <f t="shared" si="13"/>
-        <v>0.12141354869655999</v>
+        <v>0.11196784538390965</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="14"/>
@@ -13232,7 +13278,7 @@
       </c>
       <c r="AM17">
         <f t="shared" si="17"/>
-        <v>0.61480600000000019</v>
+        <v>0.56956000000000007</v>
       </c>
       <c r="AN17">
         <f t="shared" si="18"/>
@@ -13254,8 +13300,11 @@
         <f t="shared" si="22"/>
         <v>4.8336242170243376E-2</v>
       </c>
+      <c r="AS17">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="18" spans="2:44">
+    <row r="18" spans="2:45">
       <c r="B18" s="18">
         <v>0.83860840000000003</v>
       </c>
@@ -13335,7 +13384,7 @@
       </c>
       <c r="AI18">
         <f t="shared" si="13"/>
-        <v>0.11663854379240919</v>
+        <v>0.12794313447412231</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="14"/>
@@ -13351,7 +13400,7 @@
       </c>
       <c r="AM18">
         <f t="shared" si="17"/>
-        <v>0.59218300000000013</v>
+        <v>0.64497000000000004</v>
       </c>
       <c r="AN18">
         <f t="shared" si="18"/>
@@ -13373,8 +13422,11 @@
         <f t="shared" si="22"/>
         <v>4.0371404066690778E-2</v>
       </c>
+      <c r="AS18">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="19" spans="2:44">
+    <row r="19" spans="2:45">
       <c r="B19" s="18">
         <v>0.90189960000000013</v>
       </c>
@@ -13454,7 +13506,7 @@
       </c>
       <c r="AI19">
         <f t="shared" si="13"/>
-        <v>0.33975846188931447</v>
+        <v>0.14508712350397979</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="14"/>
@@ -13470,7 +13522,7 @@
       </c>
       <c r="AM19">
         <f t="shared" si="17"/>
-        <v>1.3613650000000002</v>
+        <v>0.72038000000000002</v>
       </c>
       <c r="AN19">
         <f t="shared" si="18"/>
@@ -13492,8 +13544,11 @@
         <f t="shared" si="22"/>
         <v>5.5898451258989131E-2</v>
       </c>
+      <c r="AS19">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="20" spans="2:44">
+    <row r="20" spans="2:45">
       <c r="B20" s="18">
         <v>0.91772240000000005</v>
       </c>
@@ -13573,7 +13628,7 @@
       </c>
       <c r="AI20">
         <f t="shared" si="13"/>
-        <v>0.34827789114940061</v>
+        <v>0.16341325523543421</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="14"/>
@@ -13589,7 +13644,7 @@
       </c>
       <c r="AM20">
         <f t="shared" si="17"/>
-        <v>1.383988</v>
+        <v>0.79579</v>
       </c>
       <c r="AN20">
         <f t="shared" si="18"/>
@@ -13611,8 +13666,11 @@
         <f t="shared" si="22"/>
         <v>6.1006492551014223E-2</v>
       </c>
+      <c r="AS20">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="21" spans="2:44">
+    <row r="21" spans="2:45">
       <c r="B21" s="18">
         <v>0.90981100000000004</v>
       </c>
@@ -13692,7 +13750,7 @@
       </c>
       <c r="AI21">
         <f t="shared" si="13"/>
-        <v>0.34258548612842565</v>
+        <v>0.18293438711225032</v>
       </c>
       <c r="AJ21">
         <f t="shared" si="14"/>
@@ -13708,7 +13766,7 @@
       </c>
       <c r="AM21">
         <f t="shared" si="17"/>
-        <v>1.3689060000000004</v>
+        <v>0.8712000000000002</v>
       </c>
       <c r="AN21">
         <f t="shared" si="18"/>
@@ -13730,8 +13788,11 @@
         <f t="shared" si="22"/>
         <v>6.3477489693280237E-2</v>
       </c>
+      <c r="AS21">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="22" spans="2:44">
+    <row r="22" spans="2:45">
       <c r="B22" s="18">
         <v>0.98101360000000004</v>
       </c>
@@ -13805,7 +13866,7 @@
       </c>
       <c r="AI22">
         <f t="shared" si="13"/>
-        <v>0.72501482004456264</v>
+        <v>0.20366284568152518</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="14"/>
@@ -13821,7 +13882,7 @@
       </c>
       <c r="AM22">
         <f t="shared" si="17"/>
-        <v>2.1833340000000003</v>
+        <v>0.94660999999999995</v>
       </c>
       <c r="AN22">
         <f t="shared" si="18"/>
@@ -13843,8 +13904,11 @@
         <f t="shared" si="22"/>
         <v>7.1455432078942741E-2</v>
       </c>
+      <c r="AS22">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:45">
       <c r="B23" s="18">
         <v>1.0126592000000001</v>
       </c>
@@ -13918,7 +13982,7 @@
       </c>
       <c r="AI23">
         <f t="shared" si="13"/>
-        <v>0.72928645623658772</v>
+        <v>0.22561047352590169</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="14"/>
@@ -13934,7 +13998,7 @@
       </c>
       <c r="AM23">
         <f t="shared" si="17"/>
-        <v>2.1908750000000001</v>
+        <v>1.0220200000000002</v>
       </c>
       <c r="AN23">
         <f t="shared" si="18"/>
@@ -13956,8 +14020,11 @@
         <f t="shared" si="22"/>
         <v>6.4176850881148648E-2</v>
       </c>
+      <c r="AS23">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:45">
       <c r="B24" s="18">
         <v>1.0284820000000001</v>
       </c>
@@ -14031,7 +14098,7 @@
       </c>
       <c r="AI24">
         <f t="shared" si="13"/>
-        <v>0.71651259181519</v>
+        <v>0.248788670040474</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="14"/>
@@ -14047,7 +14114,7 @@
       </c>
       <c r="AM24">
         <f t="shared" si="17"/>
-        <v>2.1682520000000003</v>
+        <v>1.0974300000000001</v>
       </c>
       <c r="AN24">
         <f t="shared" si="18"/>
@@ -14069,8 +14136,11 @@
         <f t="shared" si="22"/>
         <v>6.9806533686087829E-2</v>
       </c>
+      <c r="AS24">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:45">
       <c r="B25" s="18">
         <v>1.0759504000000002</v>
       </c>
@@ -14144,7 +14214,7 @@
       </c>
       <c r="AI25">
         <f t="shared" si="13"/>
-        <v>0.10441408696875942</v>
+        <v>0.27320842710152682</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="14"/>
@@ -14160,7 +14230,7 @@
       </c>
       <c r="AM25">
         <f t="shared" si="17"/>
-        <v>0.53185499999999997</v>
+        <v>1.1728400000000001</v>
       </c>
       <c r="AN25">
         <f t="shared" si="18"/>
@@ -14182,8 +14252,11 @@
         <f t="shared" si="22"/>
         <v>4.1895336641230074E-2</v>
       </c>
+      <c r="AS25">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:45">
       <c r="B26" s="18">
         <v>1.107596</v>
       </c>
@@ -14257,7 +14330,7 @@
       </c>
       <c r="AI26">
         <f t="shared" si="13"/>
-        <v>0.10590183262766005</v>
+        <v>0.29888036045876915</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="14"/>
@@ -14273,7 +14346,7 @@
       </c>
       <c r="AM26">
         <f t="shared" si="17"/>
-        <v>0.53939599999999999</v>
+        <v>1.2482500000000001</v>
       </c>
       <c r="AN26">
         <f t="shared" si="18"/>
@@ -14295,8 +14368,11 @@
         <f t="shared" si="22"/>
         <v>4.7476033140107683E-2</v>
       </c>
+      <c r="AS26">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:45">
       <c r="B27" s="18">
         <v>1.1234188000000001</v>
       </c>
@@ -14370,7 +14446,7 @@
       </c>
       <c r="AI27">
         <f t="shared" si="13"/>
-        <v>0.10001963209167032</v>
+        <v>0.32581473751863882</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="14"/>
@@ -14386,7 +14462,7 @@
       </c>
       <c r="AM27">
         <f t="shared" si="17"/>
-        <v>0.50923199999999991</v>
+        <v>1.3236600000000001</v>
       </c>
       <c r="AN27">
         <f t="shared" si="18"/>
@@ -14408,8 +14484,11 @@
         <f t="shared" si="22"/>
         <v>5.2266659994520667E-2</v>
       </c>
+      <c r="AS27">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:45">
       <c r="B28" s="18">
         <v>1.1392416000000001</v>
       </c>
@@ -14483,7 +14562,7 @@
       </c>
       <c r="AI28">
         <f t="shared" si="13"/>
-        <v>0.56157358689954229</v>
+        <v>0.35402150205976551</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="14"/>
@@ -14499,7 +14578,7 @@
       </c>
       <c r="AM28">
         <f t="shared" si="17"/>
-        <v>1.8741530000000002</v>
+        <v>1.39907</v>
       </c>
       <c r="AN28">
         <f t="shared" si="18"/>
@@ -14521,8 +14600,11 @@
         <f t="shared" si="22"/>
         <v>6.6508405762532835E-2</v>
       </c>
+      <c r="AS28">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:45">
       <c r="B29" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -14596,7 +14678,7 @@
       </c>
       <c r="AI29">
         <f t="shared" si="13"/>
-        <v>0.5690205285607679</v>
+        <v>0.38351029632305178</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="14"/>
@@ -14612,7 +14694,7 @@
       </c>
       <c r="AM29">
         <f t="shared" si="17"/>
-        <v>1.8892350000000002</v>
+        <v>1.4744800000000002</v>
       </c>
       <c r="AN29">
         <f t="shared" si="18"/>
@@ -14634,8 +14716,11 @@
         <f t="shared" si="22"/>
         <v>6.3088085469016952E-2</v>
       </c>
+      <c r="AS29">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:45">
       <c r="B30" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -14709,7 +14794,7 @@
       </c>
       <c r="AI30">
         <f t="shared" si="13"/>
-        <v>0.56529036886359729</v>
+        <v>0.41429048084114906</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="14"/>
@@ -14725,7 +14810,7 @@
       </c>
       <c r="AM30">
         <f t="shared" si="17"/>
-        <v>1.8816940000000004</v>
+        <v>1.54989</v>
       </c>
       <c r="AN30">
         <f t="shared" si="18"/>
@@ -14747,8 +14832,11 @@
         <f t="shared" si="22"/>
         <v>7.1976000827902911E-2</v>
       </c>
+      <c r="AS30">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:45">
       <c r="B31" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -14822,7 +14910,7 @@
       </c>
       <c r="AI31">
         <f t="shared" si="13"/>
-        <v>0.45625027785563549</v>
+        <v>0.44637115231032187</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="14"/>
@@ -14838,7 +14926,7 @@
       </c>
       <c r="AM31">
         <f t="shared" si="17"/>
-        <v>1.647923</v>
+        <v>1.6253000000000002</v>
       </c>
       <c r="AN31">
         <f t="shared" si="18"/>
@@ -14860,8 +14948,11 @@
         <f t="shared" si="22"/>
         <v>6.5041040769774988E-2</v>
       </c>
+      <c r="AS31">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:45">
       <c r="B32" s="18">
         <v>1.1867100000000002</v>
       </c>
@@ -14932,7 +15023,7 @@
       </c>
       <c r="AI32">
         <f t="shared" si="13"/>
-        <v>0.46960616023090057</v>
+        <v>0.4797611597581255</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="14"/>
@@ -14948,7 +15039,7 @@
       </c>
       <c r="AM32">
         <f t="shared" si="17"/>
-        <v>1.6780870000000001</v>
+        <v>1.7007099999999999</v>
       </c>
       <c r="AN32">
         <f t="shared" si="18"/>
@@ -14970,8 +15061,11 @@
         <f t="shared" si="22"/>
         <v>6.5354503708422468E-2</v>
       </c>
+      <c r="AS32">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:45">
       <c r="B33" s="18">
         <v>1.2183556000000002</v>
       </c>
@@ -15042,7 +15136,7 @@
       </c>
       <c r="AI33">
         <f t="shared" si="13"/>
-        <v>0.46624747997767263</v>
+        <v>0.51446911922023775</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="14"/>
@@ -15058,7 +15152,7 @@
       </c>
       <c r="AM33">
         <f t="shared" si="17"/>
-        <v>1.6705459999999999</v>
+        <v>1.7761200000000001</v>
       </c>
       <c r="AN33">
         <f t="shared" si="18"/>
@@ -15080,8 +15174,11 @@
         <f t="shared" si="22"/>
         <v>6.3437190530912124E-2</v>
       </c>
+      <c r="AS33">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:45">
       <c r="B34" s="18">
         <v>1.2658240000000001</v>
       </c>
@@ -15152,7 +15249,7 @@
       </c>
       <c r="AI34">
         <f t="shared" si="13"/>
-        <v>0.10740106664475262</v>
+        <v>0.55050342710711875</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="14"/>
@@ -15168,7 +15265,7 @@
       </c>
       <c r="AM34">
         <f t="shared" si="17"/>
-        <v>0.54693700000000001</v>
+        <v>1.8515300000000003</v>
       </c>
       <c r="AN34">
         <f t="shared" si="18"/>
@@ -15190,8 +15287,11 @@
         <f t="shared" si="22"/>
         <v>5.7891101773406464E-2</v>
       </c>
+      <c r="AS34">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="35" spans="2:44">
+    <row r="35" spans="2:45">
       <c r="B35" s="18">
         <v>1.2737354000000001</v>
       </c>
@@ -15262,7 +15362,7 @@
       </c>
       <c r="AI35">
         <f t="shared" si="13"/>
-        <v>0.11981026714113728</v>
+        <v>0.58787227241435513</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="14"/>
@@ -15278,7 +15378,7 @@
       </c>
       <c r="AM35">
         <f t="shared" si="17"/>
-        <v>0.60726500000000017</v>
+        <v>1.9269400000000001</v>
       </c>
       <c r="AN35">
         <f t="shared" si="18"/>
@@ -15300,8 +15400,11 @@
         <f t="shared" si="22"/>
         <v>4.6176919895248983E-2</v>
       </c>
+      <c r="AS35">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="36" spans="2:44">
+    <row r="36" spans="2:45">
       <c r="B36" s="18">
         <v>1.3053810000000001</v>
       </c>
@@ -15372,7 +15475,7 @@
       </c>
       <c r="AI36">
         <f t="shared" si="13"/>
-        <v>0.11507007369665512</v>
+        <v>0.62658364790840992</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="14"/>
@@ -15388,7 +15491,7 @@
       </c>
       <c r="AM36">
         <f t="shared" si="17"/>
-        <v>0.58464200000000011</v>
+        <v>2.0023499999999999</v>
       </c>
       <c r="AN36">
         <f t="shared" si="18"/>
@@ -15410,8 +15513,11 @@
         <f t="shared" si="22"/>
         <v>5.2396670723061756E-2</v>
       </c>
+      <c r="AS36">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="37" spans="2:44">
+    <row r="37" spans="2:45">
       <c r="B37" s="18">
         <v>1.3132924000000001</v>
       </c>
@@ -15467,7 +15573,7 @@
       </c>
       <c r="AI37">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.66664536040109268</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="14"/>
@@ -15483,7 +15589,7 @@
       </c>
       <c r="AM37">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.0777600000000001</v>
       </c>
       <c r="AN37">
         <f t="shared" si="18"/>
@@ -15505,8 +15611,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS37">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="38" spans="2:44">
+    <row r="38" spans="2:45">
       <c r="B38" s="18">
         <v>1.3291152000000002</v>
       </c>
@@ -15562,7 +15671,7 @@
       </c>
       <c r="AI38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.70806504021066918</v>
       </c>
       <c r="AJ38">
         <f t="shared" si="14"/>
@@ -15578,7 +15687,7 @@
       </c>
       <c r="AM38">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.1531700000000003</v>
       </c>
       <c r="AN38">
         <f t="shared" si="18"/>
@@ -15600,8 +15709,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS38">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:45">
       <c r="B39" s="18">
         <v>1.3291152000000002</v>
       </c>
@@ -15657,7 +15769,7 @@
       </c>
       <c r="AI39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.75085014989461563</v>
       </c>
       <c r="AJ39">
         <f t="shared" si="14"/>
@@ -15673,7 +15785,7 @@
       </c>
       <c r="AM39">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.22858</v>
       </c>
       <c r="AN39">
         <f t="shared" si="18"/>
@@ -15695,8 +15807,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS39">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:45">
       <c r="B40" s="18">
         <v>1.3449380000000002</v>
       </c>
@@ -15752,7 +15867,7 @@
       </c>
       <c r="AI40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.79500799232809061</v>
       </c>
       <c r="AJ40">
         <f t="shared" si="14"/>
@@ -15768,7 +15883,7 @@
       </c>
       <c r="AM40">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.3039900000000002</v>
       </c>
       <c r="AN40">
         <f t="shared" si="18"/>
@@ -15790,8 +15905,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS40">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:45">
       <c r="B41" s="18">
         <v>1.3449380000000002</v>
       </c>
@@ -15847,7 +15965,7 @@
       </c>
       <c r="AI41">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.84054571819293111</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="14"/>
@@ -15863,7 +15981,7 @@
       </c>
       <c r="AM41">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.3794000000000004</v>
       </c>
       <c r="AN41">
         <f t="shared" si="18"/>
@@ -15885,8 +16003,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS41">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:45">
       <c r="B42" s="18">
         <v>1.3924064</v>
       </c>
@@ -15942,7 +16063,7 @@
       </c>
       <c r="AI42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.88747033293407207</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="14"/>
@@ -15958,7 +16079,7 @@
       </c>
       <c r="AM42">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.4548100000000002</v>
       </c>
       <c r="AN42">
         <f t="shared" si="18"/>
@@ -15980,8 +16101,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS42">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:45">
       <c r="B43" s="18">
         <v>1.3924064</v>
       </c>
@@ -16037,7 +16161,7 @@
       </c>
       <c r="AI43">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.9357887032335318</v>
       </c>
       <c r="AJ43">
         <f t="shared" si="14"/>
@@ -16053,7 +16177,7 @@
       </c>
       <c r="AM43">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.5302199999999999</v>
       </c>
       <c r="AN43">
         <f t="shared" si="18"/>
@@ -16075,8 +16199,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS43">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:45">
       <c r="B44" s="18">
         <v>1.4082292000000001</v>
       </c>
@@ -16132,7 +16259,7 @@
       </c>
       <c r="AI44">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.98550756304627007</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="14"/>
@@ -16148,7 +16275,7 @@
       </c>
       <c r="AM44">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.6056300000000001</v>
       </c>
       <c r="AN44">
         <f t="shared" si="18"/>
@@ -16170,8 +16297,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS44">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="45" spans="2:44">
+    <row r="45" spans="2:45">
       <c r="B45" s="18">
         <v>1.4398748000000001</v>
       </c>
@@ -16227,7 +16357,7 @@
       </c>
       <c r="AI45">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0366335192372216</v>
       </c>
       <c r="AJ45">
         <f t="shared" si="14"/>
@@ -16243,7 +16373,7 @@
       </c>
       <c r="AM45">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.6810400000000003</v>
       </c>
       <c r="AN45">
         <f t="shared" si="18"/>
@@ -16265,8 +16395,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS45">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:45">
       <c r="B46" s="18">
         <v>1.4398748000000001</v>
       </c>
@@ -16322,7 +16455,7 @@
       </c>
       <c r="AI46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0891730568544482</v>
       </c>
       <c r="AJ46">
         <f t="shared" si="14"/>
@@ -16338,7 +16471,7 @@
       </c>
       <c r="AM46">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.7564500000000001</v>
       </c>
       <c r="AN46">
         <f t="shared" si="18"/>
@@ -16360,8 +16493,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS46">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="47" spans="2:44">
+    <row r="47" spans="2:45">
       <c r="B47" s="18">
         <v>1.4556976000000001</v>
       </c>
@@ -16414,7 +16550,7 @@
       </c>
       <c r="AI47">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.143132544069571</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="14"/>
@@ -16430,7 +16566,7 @@
       </c>
       <c r="AM47">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.8318600000000003</v>
       </c>
       <c r="AN47">
         <f t="shared" si="18"/>
@@ -16452,8 +16588,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS47">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:45">
       <c r="B48" s="18">
         <v>1.4636090000000002</v>
       </c>
@@ -16506,7 +16645,7 @@
       </c>
       <c r="AI48">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.1985182368133509</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="14"/>
@@ -16522,7 +16661,7 @@
       </c>
       <c r="AM48">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.90727</v>
       </c>
       <c r="AN48">
         <f t="shared" si="18"/>
@@ -16544,8 +16683,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS48">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="49" spans="2:44">
+    <row r="49" spans="2:45">
       <c r="B49" s="18">
         <v>1.5031660000000002</v>
       </c>
@@ -16598,7 +16740,7 @@
       </c>
       <c r="AI49">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.2553362831314052</v>
       </c>
       <c r="AJ49">
         <f t="shared" si="14"/>
@@ -16614,7 +16756,7 @@
       </c>
       <c r="AM49">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>2.9826800000000002</v>
       </c>
       <c r="AN49">
         <f t="shared" si="18"/>
@@ -16636,8 +16778,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS49">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:45">
       <c r="B50" s="18">
         <v>1.5031660000000002</v>
       </c>
@@ -16690,7 +16835,7 @@
       </c>
       <c r="AI50">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.3135927272824974</v>
       </c>
       <c r="AJ50">
         <f t="shared" si="14"/>
@@ -16706,7 +16851,7 @@
       </c>
       <c r="AM50">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>3.05809</v>
       </c>
       <c r="AN50">
         <f t="shared" si="18"/>
@@ -16728,8 +16873,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS50">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="51" spans="2:44">
+    <row r="51" spans="2:45">
       <c r="B51" s="18">
         <v>1.5348116000000001</v>
       </c>
@@ -16782,7 +16930,7 @@
       </c>
       <c r="AI51">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.3732935135996358</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="14"/>
@@ -16798,7 +16946,7 @@
       </c>
       <c r="AM51">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>3.1335000000000002</v>
       </c>
       <c r="AN51">
         <f t="shared" si="18"/>
@@ -16820,8 +16968,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS51">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="52" spans="2:44">
+    <row r="52" spans="2:45">
       <c r="B52" s="18">
         <v>1.5822800000000001</v>
       </c>
@@ -16874,7 +17025,7 @@
       </c>
       <c r="AI52">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.0507328629807326E-3</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="14"/>
@@ -16890,7 +17041,7 @@
       </c>
       <c r="AM52">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.25240899999999999</v>
       </c>
       <c r="AN52">
         <f t="shared" si="18"/>
@@ -16912,8 +17063,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS52">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
-    <row r="53" spans="2:44">
+    <row r="53" spans="2:45">
       <c r="B53" s="18">
         <v>1.6297484000000002</v>
       </c>
@@ -16966,7 +17120,7 @@
       </c>
       <c r="AI53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.4457558351998174E-3</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="14"/>
@@ -16982,7 +17136,7 @@
       </c>
       <c r="AM53">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.24486800000000003</v>
       </c>
       <c r="AN53">
         <f t="shared" si="18"/>
@@ -17004,8 +17158,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS53">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
-    <row r="54" spans="2:44">
+    <row r="54" spans="2:45">
       <c r="B54" s="18">
         <v>1.6772168000000001</v>
       </c>
@@ -17058,7 +17215,7 @@
       </c>
       <c r="AI54">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.8500009495915298E-3</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="14"/>
@@ -17074,7 +17231,7 @@
       </c>
       <c r="AM54">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.23732700000000001</v>
       </c>
       <c r="AN54">
         <f t="shared" si="18"/>
@@ -17096,8 +17253,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS54">
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="55" spans="2:44">
+    <row r="55" spans="2:45">
       <c r="B55" s="18">
         <v>1.7879764000000002</v>
       </c>
@@ -17150,7 +17310,7 @@
       </c>
       <c r="AI55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0263503407901971E-2</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="14"/>
@@ -17166,7 +17326,7 @@
       </c>
       <c r="AM55">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.22978599999999999</v>
       </c>
       <c r="AN55">
         <f t="shared" si="18"/>
@@ -17188,8 +17348,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS55">
+        <v>5.3999999999999999E-2</v>
+      </c>
     </row>
-    <row r="56" spans="2:44">
+    <row r="56" spans="2:45">
       <c r="B56" s="18">
         <v>1.8512676000000001</v>
       </c>
@@ -17242,7 +17405,7 @@
       </c>
       <c r="AI56">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0686297884420774E-2</v>
       </c>
       <c r="AJ56">
         <f t="shared" si="14"/>
@@ -17258,7 +17421,7 @@
       </c>
       <c r="AM56">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.22224499999999997</v>
       </c>
       <c r="AN56">
         <f t="shared" si="18"/>
@@ -17280,8 +17443,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS56">
+        <v>5.5E-2</v>
+      </c>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:45">
       <c r="B57" s="18">
         <v>1.8987360000000002</v>
       </c>
@@ -17334,7 +17500,7 @@
       </c>
       <c r="AI57">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.1118418543438195E-2</v>
       </c>
       <c r="AJ57">
         <f t="shared" si="14"/>
@@ -17350,7 +17516,7 @@
       </c>
       <c r="AM57">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.21470400000000001</v>
       </c>
       <c r="AN57">
         <f t="shared" si="18"/>
@@ -17372,8 +17538,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS57">
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
-    <row r="58" spans="2:44">
+    <row r="58" spans="2:45">
       <c r="B58" s="18">
         <v>1.9462044000000003</v>
       </c>
@@ -17426,7 +17595,7 @@
       </c>
       <c r="AI58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.1559899055819577E-2</v>
       </c>
       <c r="AJ58">
         <f t="shared" si="14"/>
@@ -17442,7 +17611,7 @@
       </c>
       <c r="AM58">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.20716299999999999</v>
       </c>
       <c r="AN58">
         <f t="shared" si="18"/>
@@ -17464,8 +17633,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS58">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
-    <row r="59" spans="2:44">
+    <row r="59" spans="2:45">
       <c r="B59" s="18">
         <v>1.8512676000000001</v>
       </c>
@@ -17518,7 +17690,7 @@
       </c>
       <c r="AI59">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.2010772614756745E-2</v>
       </c>
       <c r="AJ59">
         <f t="shared" si="14"/>
@@ -17534,7 +17706,7 @@
       </c>
       <c r="AM59">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.19962199999999997</v>
       </c>
       <c r="AN59">
         <f t="shared" si="18"/>
@@ -17556,8 +17728,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS59">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
-    <row r="60" spans="2:44">
+    <row r="60" spans="2:45">
       <c r="B60" s="18">
         <v>1.9936728000000001</v>
       </c>
@@ -17610,7 +17785,7 @@
       </c>
       <c r="AI60">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.2471071950750747E-2</v>
       </c>
       <c r="AJ60">
         <f t="shared" si="14"/>
@@ -17626,7 +17801,7 @@
       </c>
       <c r="AM60">
         <f t="shared" si="17"/>
-        <v>-0.63700000000000001</v>
+        <v>-0.192081</v>
       </c>
       <c r="AN60">
         <f t="shared" si="18"/>
@@ -17648,8 +17823,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="AS60">
+        <v>5.8999999999999997E-2</v>
+      </c>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="2:45">
       <c r="B61" s="18">
         <v>1.8512676000000001</v>
       </c>
@@ -17741,7 +17919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="2:45">
       <c r="B62" s="18">
         <v>1.9936728000000001</v>
       </c>
@@ -17833,7 +18011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="2:45">
       <c r="B63" s="18">
         <v>2.0253184000000002</v>
       </c>
@@ -17925,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="2:45">
       <c r="B64" s="18">
         <v>1.8512676000000001</v>
       </c>
@@ -18253,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <f t="shared" ref="AI67:AI74" si="34">6.31*(W67)^2.2</f>
+        <f t="shared" ref="AI67:AI74" si="34">6.31*(AS67)^2.2</f>
         <v>0</v>
       </c>
       <c r="AJ67">
@@ -18269,7 +18447,7 @@
         <v>3.8095238095238092E-2</v>
       </c>
       <c r="AM67">
-        <f t="shared" ref="AM67:AM74" si="38">7.541*(W67)-0.637</f>
+        <f t="shared" ref="AM67:AM74" si="38">7.541*(AS67)-0.637</f>
         <v>-0.63700000000000001</v>
       </c>
       <c r="AN67">

--- a/E vs ro.xlsx
+++ b/E vs ro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="4890" windowWidth="22005" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="570" yWindow="5490" windowWidth="22005" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1296,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359712144"/>
-        <c:axId val="359715952"/>
+        <c:axId val="-659555072"/>
+        <c:axId val="-598348000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359712144"/>
+        <c:axId val="-659555072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,12 +1310,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359715952"/>
+        <c:crossAx val="-598348000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359715952"/>
+        <c:axId val="-598348000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359712144"/>
+        <c:crossAx val="-659555072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359714320"/>
-        <c:axId val="359717584"/>
+        <c:axId val="-598358336"/>
+        <c:axId val="-598356704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359714320"/>
+        <c:axId val="-598358336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,12 +2759,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359717584"/>
+        <c:crossAx val="-598356704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359717584"/>
+        <c:axId val="-598356704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2877,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359714320"/>
+        <c:crossAx val="-598358336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6546,11 +6546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359718128"/>
-        <c:axId val="359720304"/>
+        <c:axId val="-598346912"/>
+        <c:axId val="-598351808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359718128"/>
+        <c:axId val="-598346912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -6664,12 +6664,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359720304"/>
+        <c:crossAx val="-598351808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359720304"/>
+        <c:axId val="-598351808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -6788,7 +6788,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359718128"/>
+        <c:crossAx val="-598346912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7420,8 +7420,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368897360"/>
-        <c:axId val="325662336"/>
+        <c:axId val="-598357792"/>
+        <c:axId val="-598347456"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -7689,11 +7689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368897360"/>
-        <c:axId val="325662336"/>
+        <c:axId val="-598357792"/>
+        <c:axId val="-598347456"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="368897360"/>
+        <c:axId val="-598357792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7806,7 +7806,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325662336"/>
+        <c:crossAx val="-598347456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7815,7 +7815,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325662336"/>
+        <c:axId val="-598347456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -7930,7 +7930,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368897360"/>
+        <c:crossAx val="-598357792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9718,16 +9718,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42274</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>365268</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9748,16 +9748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>587553</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>148119</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619658</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>225817</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44521</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>397052</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10098,8 +10098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11047,8 +11047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X36"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
